--- a/Lamia/toolprepro/base2_chantier/sousfiches/Orange.xlsx
+++ b/Lamia/toolprepro/base2_chantier/sousfiches/Orange.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBDB3A8C-DE1F-42AF-8D14-000A94BBB441}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A85130-5E7F-4324-8CE8-0B6D138E88D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="218">
   <si>
     <t>1.1.1</t>
   </si>
@@ -670,6 +670,22 @@
   </si>
   <si>
     <t>PROPRETE CHANTIER</t>
+  </si>
+  <si>
+    <t>1.1.6</t>
+  </si>
+  <si>
+    <t>1.1.7</t>
+  </si>
+  <si>
+    <t>Identifiant de la chambre de départ</t>
+  </si>
+  <si>
+    <t>Identifiant du point technique d'arrivée
+(chambres, poteau, façade)</t>
+  </si>
+  <si>
+    <t>TEXT</t>
   </si>
 </sst>
 </file>
@@ -823,7 +839,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -884,15 +900,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -941,9 +948,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -956,53 +960,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1010,20 +981,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1032,49 +991,34 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1095,12 +1039,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -1113,18 +1051,12 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1143,17 +1075,92 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1435,10 +1442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I112"/>
+  <dimension ref="A1:I114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1448,1449 +1455,1471 @@
     <col min="3" max="3" width="82.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B8" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
+      <c r="C8" s="79"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="4" t="s">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="4" t="s">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="s">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="4" t="s">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C22" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="16" t="s">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="16"/>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="4" t="s">
+      <c r="C23" s="78"/>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="4" t="s">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="4" t="s">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="4" t="s">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C27" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="4" t="s">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C28" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="4" t="s">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C29" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="4" t="s">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C30" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="4" t="s">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C31" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="4" t="s">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C32" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="17" t="s">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="17"/>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="4" t="s">
+      <c r="C33" s="78"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C34" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C35" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="15"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="75"/>
+      <c r="H35" s="75"/>
       <c r="I35" s="1"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
+        <v>66</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="75"/>
+      <c r="H36" s="75"/>
       <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
+        <v>68</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="76"/>
+      <c r="H37" s="77"/>
       <c r="I37" s="1"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
+        <v>70</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="75"/>
+      <c r="H38" s="75"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
+        <v>72</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="75"/>
+      <c r="H39" s="75"/>
       <c r="I39" s="1"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="22"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="75"/>
+      <c r="H40" s="75"/>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="22"/>
+        <v>76</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="75"/>
+      <c r="H41" s="75"/>
+      <c r="I41" s="1"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="22"/>
+        <v>78</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="71"/>
+      <c r="H42" s="72"/>
+      <c r="I42" s="12"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="71"/>
+      <c r="H43" s="72"/>
+      <c r="I43" s="12"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="71"/>
+      <c r="H44" s="72"/>
+      <c r="I44" s="12"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C45" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="22"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="71"/>
+      <c r="H45" s="72"/>
+      <c r="I45" s="12"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>86</v>
       </c>
-      <c r="B44" s="23" t="s">
+      <c r="B46" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C46" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="26"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="23" t="s">
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="59"/>
+      <c r="H46" s="60"/>
+      <c r="I46" s="14"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C45" s="27" t="s">
+      <c r="C47" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="26"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="23" t="s">
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="59"/>
+      <c r="H47" s="60"/>
+      <c r="I47" s="14"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="C46" s="28" t="s">
+      <c r="C48" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="26"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="23" t="s">
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="56"/>
+      <c r="H48" s="57"/>
+      <c r="I48" s="14"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C47" s="28" t="s">
+      <c r="C49" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="32"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="23" t="s">
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="73"/>
+      <c r="H49" s="74"/>
+      <c r="I49" s="18"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C50" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="18"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="23" t="s">
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="56"/>
+      <c r="H50" s="57"/>
+      <c r="I50" s="10"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C51" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="18"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B50" s="23" t="s">
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="56"/>
+      <c r="H51" s="57"/>
+      <c r="I51" s="10"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C52" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="18"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B51" s="23" t="s">
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="56"/>
+      <c r="H52" s="57"/>
+      <c r="I52" s="10"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C53" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="26"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="23" t="s">
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="59"/>
+      <c r="H53" s="60"/>
+      <c r="I53" s="14"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C54" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="18"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="23" t="s">
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="56"/>
+      <c r="H54" s="57"/>
+      <c r="I54" s="10"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C55" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="24"/>
-      <c r="H53" s="25"/>
-      <c r="I53" s="26"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="23" t="s">
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="59"/>
+      <c r="H55" s="60"/>
+      <c r="I55" s="14"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B56" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C56" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="24"/>
-      <c r="H54" s="25"/>
-      <c r="I54" s="26"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B55" s="23" t="s">
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="59"/>
+      <c r="H56" s="60"/>
+      <c r="I56" s="14"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B57" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="C57" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="24"/>
-      <c r="H55" s="25"/>
-      <c r="I55" s="26"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B56" s="23" t="s">
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="59"/>
+      <c r="H57" s="60"/>
+      <c r="I57" s="14"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C56" s="27" t="s">
+      <c r="C58" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="33"/>
-      <c r="H56" s="34"/>
-      <c r="I56" s="35"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B57" s="23" t="s">
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="69"/>
+      <c r="H58" s="70"/>
+      <c r="I58" s="19"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="C57" s="36" t="s">
+      <c r="C59" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="D57" s="36"/>
-      <c r="E57" s="36"/>
-      <c r="F57" s="36"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="37"/>
-      <c r="I57" s="37"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="23" t="s">
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="21"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="C58" s="36" t="s">
+      <c r="C60" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="D58" s="36"/>
-      <c r="E58" s="36"/>
-      <c r="F58" s="36"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="37"/>
-      <c r="I58" s="37"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="38" t="s">
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="21"/>
+      <c r="I60" s="21"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="58" t="s">
         <v>117</v>
       </c>
-      <c r="C59" s="38"/>
-      <c r="D59" s="38"/>
-      <c r="E59" s="38"/>
-      <c r="F59" s="38"/>
-      <c r="G59" s="38"/>
-      <c r="H59" s="38"/>
-      <c r="I59" s="38"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="23" t="s">
+      <c r="C61" s="58"/>
+      <c r="D61" s="58"/>
+      <c r="E61" s="58"/>
+      <c r="F61" s="58"/>
+      <c r="G61" s="58"/>
+      <c r="H61" s="58"/>
+      <c r="I61" s="58"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B62" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="C62" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="24"/>
-      <c r="H60" s="25"/>
-      <c r="I60" s="26"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B61" s="38" t="s">
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="59"/>
+      <c r="H62" s="60"/>
+      <c r="I62" s="14"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B63" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="C61" s="38"/>
-      <c r="D61" s="38"/>
-      <c r="E61" s="38"/>
-      <c r="F61" s="38"/>
-      <c r="G61" s="38"/>
-      <c r="H61" s="38"/>
-      <c r="I61" s="38"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="23" t="s">
+      <c r="C63" s="58"/>
+      <c r="D63" s="58"/>
+      <c r="E63" s="58"/>
+      <c r="F63" s="58"/>
+      <c r="G63" s="58"/>
+      <c r="H63" s="58"/>
+      <c r="I63" s="58"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B64" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="C64" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="24"/>
-      <c r="H62" s="25"/>
-      <c r="I62" s="26"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="59"/>
+      <c r="H64" s="60"/>
+      <c r="I64" s="14"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>123</v>
       </c>
-      <c r="B63" s="39" t="s">
+      <c r="B65" s="64" t="s">
         <v>124</v>
       </c>
-      <c r="C63" s="39"/>
-      <c r="D63" s="39"/>
-      <c r="E63" s="39"/>
-      <c r="F63" s="39"/>
-      <c r="G63" s="39"/>
-      <c r="H63" s="39"/>
-      <c r="I63" s="39"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B64" s="40" t="s">
+      <c r="C65" s="65"/>
+      <c r="D65" s="65"/>
+      <c r="E65" s="65"/>
+      <c r="F65" s="65"/>
+      <c r="G65" s="65"/>
+      <c r="H65" s="65"/>
+      <c r="I65" s="82"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B66" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="C64" s="41" t="s">
+      <c r="C66" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="D64" s="42"/>
-      <c r="E64" s="43"/>
-      <c r="F64" s="44"/>
-      <c r="G64" s="45"/>
-      <c r="H64" s="46"/>
-      <c r="I64" s="40"/>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B65" s="40" t="s">
+      <c r="D66" s="24"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="26"/>
+      <c r="G66" s="67"/>
+      <c r="H66" s="68"/>
+      <c r="I66" s="22"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B67" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="C65" s="47" t="s">
+      <c r="C67" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="D65" s="48"/>
-      <c r="E65" s="49"/>
-      <c r="F65" s="28"/>
-      <c r="G65" s="50"/>
-      <c r="H65" s="50"/>
-      <c r="I65" s="51"/>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B66" s="39" t="s">
+      <c r="D67" s="28"/>
+      <c r="E67" s="29"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="63"/>
+      <c r="H67" s="63"/>
+      <c r="I67" s="30"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B68" s="64" t="s">
         <v>129</v>
       </c>
-      <c r="C66" s="39"/>
-      <c r="D66" s="39"/>
-      <c r="E66" s="39"/>
-      <c r="F66" s="39"/>
-      <c r="G66" s="39"/>
-      <c r="H66" s="39"/>
-      <c r="I66" s="39"/>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B67" s="40" t="s">
+      <c r="C68" s="65"/>
+      <c r="D68" s="65"/>
+      <c r="E68" s="65"/>
+      <c r="F68" s="65"/>
+      <c r="G68" s="65"/>
+      <c r="H68" s="65"/>
+      <c r="I68" s="82"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B69" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="C67" s="47" t="s">
+      <c r="C69" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="D67" s="48"/>
-      <c r="E67" s="52"/>
-      <c r="F67" s="53"/>
-      <c r="G67" s="50"/>
-      <c r="H67" s="50"/>
-      <c r="I67" s="51"/>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B68" s="40" t="s">
+      <c r="D69" s="28"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="32"/>
+      <c r="G69" s="63"/>
+      <c r="H69" s="63"/>
+      <c r="I69" s="30"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B70" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="C68" s="47" t="s">
+      <c r="C70" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="D68" s="48"/>
-      <c r="E68" s="54"/>
-      <c r="F68" s="55"/>
-      <c r="G68" s="50"/>
-      <c r="H68" s="50"/>
-      <c r="I68" s="51"/>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B69" s="40" t="s">
+      <c r="D70" s="28"/>
+      <c r="E70" s="33"/>
+      <c r="F70" s="34"/>
+      <c r="G70" s="63"/>
+      <c r="H70" s="63"/>
+      <c r="I70" s="30"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B71" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="C69" s="47" t="s">
+      <c r="C71" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="D69" s="48"/>
-      <c r="E69" s="48"/>
-      <c r="F69" s="56"/>
-      <c r="G69" s="50"/>
-      <c r="H69" s="50"/>
-      <c r="I69" s="51"/>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B70" s="40" t="s">
+      <c r="D71" s="28"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="35"/>
+      <c r="G71" s="63"/>
+      <c r="H71" s="63"/>
+      <c r="I71" s="30"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B72" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="C70" s="57" t="s">
+      <c r="C72" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="D70" s="48"/>
-      <c r="E70" s="48"/>
-      <c r="F70" s="58"/>
-      <c r="G70" s="50"/>
-      <c r="H70" s="50"/>
-      <c r="I70" s="51"/>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B71" s="40" t="s">
+      <c r="D72" s="28"/>
+      <c r="E72" s="28"/>
+      <c r="F72" s="37"/>
+      <c r="G72" s="63"/>
+      <c r="H72" s="63"/>
+      <c r="I72" s="30"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B73" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="C71" s="47" t="s">
+      <c r="C73" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="D71" s="59"/>
-      <c r="E71" s="28"/>
-      <c r="F71" s="28"/>
-      <c r="G71" s="50"/>
-      <c r="H71" s="50"/>
-      <c r="I71" s="51"/>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B72" s="60" t="s">
+      <c r="D73" s="38"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="63"/>
+      <c r="H73" s="63"/>
+      <c r="I73" s="30"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B74" s="64" t="s">
         <v>140</v>
       </c>
-      <c r="C72" s="61"/>
-      <c r="D72" s="61"/>
-      <c r="E72" s="61"/>
-      <c r="F72" s="61"/>
-      <c r="G72" s="61"/>
-      <c r="H72" s="61"/>
-      <c r="I72" s="61"/>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B73" s="40" t="s">
+      <c r="C74" s="65"/>
+      <c r="D74" s="65"/>
+      <c r="E74" s="65"/>
+      <c r="F74" s="65"/>
+      <c r="G74" s="65"/>
+      <c r="H74" s="65"/>
+      <c r="I74" s="65"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B75" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="C73" s="62" t="s">
+      <c r="C75" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="D73" s="48"/>
-      <c r="E73" s="49"/>
-      <c r="F73" s="28"/>
-      <c r="G73" s="50"/>
-      <c r="H73" s="50"/>
-      <c r="I73" s="51"/>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B74" s="40" t="s">
+      <c r="D75" s="28"/>
+      <c r="E75" s="29"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="63"/>
+      <c r="H75" s="63"/>
+      <c r="I75" s="30"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B76" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="C74" s="63" t="s">
+      <c r="C76" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="D74" s="48"/>
-      <c r="E74" s="64"/>
-      <c r="F74" s="64"/>
-      <c r="G74" s="50"/>
-      <c r="H74" s="50"/>
-      <c r="I74" s="51"/>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="40" t="s">
+      <c r="D76" s="28"/>
+      <c r="E76" s="41"/>
+      <c r="F76" s="41"/>
+      <c r="G76" s="63"/>
+      <c r="H76" s="63"/>
+      <c r="I76" s="30"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B77" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="C75" s="65" t="s">
+      <c r="C77" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="D75" s="66"/>
-      <c r="E75" s="28"/>
-      <c r="F75" s="28"/>
-      <c r="G75" s="50"/>
-      <c r="H75" s="50"/>
-      <c r="I75" s="51"/>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="40" t="s">
+      <c r="D77" s="43"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="63"/>
+      <c r="H77" s="63"/>
+      <c r="I77" s="30"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B78" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="C76" s="57" t="s">
+      <c r="C78" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="E76" s="28"/>
-      <c r="F76" s="28"/>
-      <c r="G76" s="50"/>
-      <c r="H76" s="50"/>
-      <c r="I76" s="51"/>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B77" s="40" t="s">
+      <c r="E78" s="16"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="63"/>
+      <c r="H78" s="63"/>
+      <c r="I78" s="30"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B79" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="C77" s="67" t="s">
+      <c r="C79" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="D77" s="68"/>
-      <c r="E77" s="69"/>
-      <c r="F77" s="69"/>
-      <c r="G77" s="70"/>
-      <c r="H77" s="70"/>
-      <c r="I77" s="71"/>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B78" s="72" t="s">
+      <c r="D79" s="45"/>
+      <c r="E79" s="46"/>
+      <c r="F79" s="46"/>
+      <c r="G79" s="66"/>
+      <c r="H79" s="66"/>
+      <c r="I79" s="47"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B80" s="80" t="s">
         <v>150</v>
       </c>
-      <c r="C78" s="72"/>
-      <c r="D78" s="72"/>
-      <c r="E78" s="72"/>
-      <c r="F78" s="72"/>
-      <c r="G78" s="72"/>
-      <c r="H78" s="72"/>
-      <c r="I78" s="72"/>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B79" s="40" t="s">
+      <c r="C80" s="58"/>
+      <c r="D80" s="58"/>
+      <c r="E80" s="58"/>
+      <c r="F80" s="58"/>
+      <c r="G80" s="58"/>
+      <c r="H80" s="58"/>
+      <c r="I80" s="81"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B81" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="C79" s="48" t="s">
+      <c r="C81" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="11"/>
-      <c r="H79" s="12"/>
-      <c r="I79" s="73"/>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B80" s="40" t="s">
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="56"/>
+      <c r="H81" s="57"/>
+      <c r="I81" s="48"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B82" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="C80" s="48" t="s">
+      <c r="C82" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="11"/>
-      <c r="H80" s="12"/>
-      <c r="I80" s="73"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B81" s="40" t="s">
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="56"/>
+      <c r="H82" s="57"/>
+      <c r="I82" s="48"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B83" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="C81" s="48" t="s">
+      <c r="C83" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9"/>
-      <c r="F81" s="9"/>
-      <c r="G81" s="11"/>
-      <c r="H81" s="12"/>
-      <c r="I81" s="73"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B82" s="40" t="s">
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="56"/>
+      <c r="H83" s="57"/>
+      <c r="I83" s="48"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B84" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="C82" s="48" t="s">
+      <c r="C84" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="D82" s="9"/>
-      <c r="E82" s="9"/>
-      <c r="F82" s="9"/>
-      <c r="G82" s="11"/>
-      <c r="H82" s="12"/>
-      <c r="I82" s="73"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B83" s="40" t="s">
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="56"/>
+      <c r="H84" s="57"/>
+      <c r="I84" s="48"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B85" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="C83" s="48" t="s">
+      <c r="C85" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9"/>
-      <c r="F83" s="9"/>
-      <c r="G83" s="11"/>
-      <c r="H83" s="12"/>
-      <c r="I83" s="73"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B84" s="40" t="s">
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="56"/>
+      <c r="H85" s="57"/>
+      <c r="I85" s="48"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B86" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="C84" s="74" t="s">
+      <c r="C86" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="D84" s="29"/>
-      <c r="E84" s="29"/>
-      <c r="F84" s="29"/>
-      <c r="G84" s="11"/>
-      <c r="H84" s="12"/>
-      <c r="I84" s="73"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B85" s="40" t="s">
+      <c r="D86" s="17"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="17"/>
+      <c r="G86" s="56"/>
+      <c r="H86" s="57"/>
+      <c r="I86" s="48"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B87" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="C85" s="75" t="s">
+      <c r="C87" s="50" t="s">
         <v>164</v>
       </c>
-      <c r="D85" s="29"/>
-      <c r="E85" s="29"/>
-      <c r="F85" s="29"/>
-      <c r="G85" s="11"/>
-      <c r="H85" s="12"/>
-      <c r="I85" s="73"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B86" s="40" t="s">
+      <c r="D87" s="17"/>
+      <c r="E87" s="17"/>
+      <c r="F87" s="17"/>
+      <c r="G87" s="56"/>
+      <c r="H87" s="57"/>
+      <c r="I87" s="48"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B88" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="C86" s="74" t="s">
+      <c r="C88" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="D86" s="29"/>
-      <c r="E86" s="29"/>
-      <c r="F86" s="29"/>
-      <c r="G86" s="11"/>
-      <c r="H86" s="12"/>
-      <c r="I86" s="73"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B87" s="40" t="s">
+      <c r="D88" s="17"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="17"/>
+      <c r="G88" s="56"/>
+      <c r="H88" s="57"/>
+      <c r="I88" s="48"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B89" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="C87" s="74" t="s">
+      <c r="C89" s="49" t="s">
         <v>168</v>
       </c>
-      <c r="D87" s="29"/>
-      <c r="E87" s="29"/>
-      <c r="F87" s="29"/>
-      <c r="G87" s="11"/>
-      <c r="H87" s="12"/>
-      <c r="I87" s="73"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B88" s="40" t="s">
+      <c r="D89" s="17"/>
+      <c r="E89" s="17"/>
+      <c r="F89" s="17"/>
+      <c r="G89" s="56"/>
+      <c r="H89" s="57"/>
+      <c r="I89" s="48"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B90" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="C88" s="74" t="s">
+      <c r="C90" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="D88" s="29"/>
-      <c r="E88" s="29"/>
-      <c r="F88" s="29"/>
-      <c r="G88" s="11"/>
-      <c r="H88" s="12"/>
-      <c r="I88" s="73"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B89" s="40" t="s">
+      <c r="D90" s="17"/>
+      <c r="E90" s="17"/>
+      <c r="F90" s="17"/>
+      <c r="G90" s="56"/>
+      <c r="H90" s="57"/>
+      <c r="I90" s="48"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B91" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="C89" s="74" t="s">
+      <c r="C91" s="49" t="s">
         <v>172</v>
       </c>
-      <c r="D89" s="29"/>
-      <c r="E89" s="29"/>
-      <c r="F89" s="29"/>
-      <c r="G89" s="11"/>
-      <c r="H89" s="12"/>
-      <c r="I89" s="73"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B90" s="60" t="s">
+      <c r="D91" s="17"/>
+      <c r="E91" s="17"/>
+      <c r="F91" s="17"/>
+      <c r="G91" s="56"/>
+      <c r="H91" s="57"/>
+      <c r="I91" s="48"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B92" s="64" t="s">
         <v>173</v>
       </c>
-      <c r="C90" s="61"/>
-      <c r="D90" s="61"/>
-      <c r="E90" s="61"/>
-      <c r="F90" s="61"/>
-      <c r="G90" s="61"/>
-      <c r="H90" s="61"/>
-      <c r="I90" s="61"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B91" s="40" t="s">
+      <c r="C92" s="65"/>
+      <c r="D92" s="65"/>
+      <c r="E92" s="65"/>
+      <c r="F92" s="65"/>
+      <c r="G92" s="65"/>
+      <c r="H92" s="65"/>
+      <c r="I92" s="65"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B93" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="C91" s="62" t="s">
+      <c r="C93" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="D91" s="28"/>
-      <c r="E91" s="28"/>
-      <c r="F91" s="28"/>
-      <c r="G91" s="50"/>
-      <c r="H91" s="50"/>
-      <c r="I91" s="51"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B92" s="40" t="s">
+      <c r="D93" s="16"/>
+      <c r="E93" s="16"/>
+      <c r="F93" s="16"/>
+      <c r="G93" s="63"/>
+      <c r="H93" s="63"/>
+      <c r="I93" s="30"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B94" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="C92" s="62" t="s">
+      <c r="C94" s="39" t="s">
         <v>177</v>
       </c>
-      <c r="D92" s="28"/>
-      <c r="E92" s="28"/>
-      <c r="F92" s="28"/>
-      <c r="G92" s="50"/>
-      <c r="H92" s="50"/>
-      <c r="I92" s="51"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="D94" s="16"/>
+      <c r="E94" s="16"/>
+      <c r="F94" s="16"/>
+      <c r="G94" s="63"/>
+      <c r="H94" s="63"/>
+      <c r="I94" s="30"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>178</v>
       </c>
-      <c r="B93" s="38" t="s">
+      <c r="B95" s="58" t="s">
         <v>179</v>
       </c>
-      <c r="C93" s="38"/>
-      <c r="D93" s="38"/>
-      <c r="E93" s="38"/>
-      <c r="F93" s="38"/>
-      <c r="G93" s="38"/>
-      <c r="H93" s="38"/>
-      <c r="I93" s="38"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B94" s="23" t="s">
+      <c r="C95" s="58"/>
+      <c r="D95" s="58"/>
+      <c r="E95" s="58"/>
+      <c r="F95" s="58"/>
+      <c r="G95" s="58"/>
+      <c r="H95" s="58"/>
+      <c r="I95" s="58"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B96" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="C94" s="27" t="s">
+      <c r="C96" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="D94" s="9"/>
-      <c r="E94" s="9"/>
-      <c r="F94" s="9"/>
-      <c r="G94" s="24"/>
-      <c r="H94" s="25"/>
-      <c r="I94" s="26"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B95" s="38" t="s">
+      <c r="D96" s="7"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="59"/>
+      <c r="H96" s="60"/>
+      <c r="I96" s="14"/>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B97" s="58" t="s">
         <v>182</v>
       </c>
-      <c r="C95" s="38"/>
-      <c r="D95" s="38"/>
-      <c r="E95" s="38"/>
-      <c r="F95" s="38"/>
-      <c r="G95" s="38"/>
-      <c r="H95" s="38"/>
-      <c r="I95" s="38"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B96" s="23" t="s">
+      <c r="C97" s="58"/>
+      <c r="D97" s="58"/>
+      <c r="E97" s="58"/>
+      <c r="F97" s="58"/>
+      <c r="G97" s="58"/>
+      <c r="H97" s="58"/>
+      <c r="I97" s="58"/>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B98" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="C96" s="9" t="s">
+      <c r="C98" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="D96" s="9"/>
-      <c r="E96" s="9"/>
-      <c r="F96" s="9"/>
-      <c r="G96" s="11"/>
-      <c r="H96" s="12"/>
-      <c r="I96" s="18"/>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B97" s="23" t="s">
+      <c r="D98" s="7"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="56"/>
+      <c r="H98" s="57"/>
+      <c r="I98" s="10"/>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B99" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="C97" s="9" t="s">
+      <c r="C99" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="D97" s="9"/>
-      <c r="E97" s="9"/>
-      <c r="F97" s="9"/>
-      <c r="G97" s="24"/>
-      <c r="H97" s="25"/>
-      <c r="I97" s="26"/>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B98" s="23" t="s">
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="59"/>
+      <c r="H99" s="60"/>
+      <c r="I99" s="14"/>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B100" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="C98" s="9" t="s">
+      <c r="C100" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="D98" s="9"/>
-      <c r="E98" s="9"/>
-      <c r="F98" s="9"/>
-      <c r="G98" s="24"/>
-      <c r="H98" s="25"/>
-      <c r="I98" s="26"/>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B99" s="23" t="s">
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="59"/>
+      <c r="H100" s="60"/>
+      <c r="I100" s="14"/>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B101" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="C99" s="9" t="s">
+      <c r="C101" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="D99" s="9"/>
-      <c r="E99" s="9"/>
-      <c r="F99" s="9"/>
-      <c r="G99" s="76"/>
-      <c r="H99" s="26"/>
-      <c r="I99" s="26"/>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B100" s="23" t="s">
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="51"/>
+      <c r="H101" s="14"/>
+      <c r="I101" s="14"/>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B102" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="C100" s="77" t="s">
+      <c r="C102" s="52" t="s">
         <v>192</v>
       </c>
-      <c r="D100" s="78"/>
-      <c r="E100" s="78"/>
-      <c r="F100" s="78"/>
-      <c r="G100" s="79"/>
-      <c r="H100" s="80"/>
-      <c r="I100" s="78"/>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B101" s="23" t="s">
+      <c r="D102" s="53"/>
+      <c r="E102" s="53"/>
+      <c r="F102" s="53"/>
+      <c r="G102" s="61"/>
+      <c r="H102" s="62"/>
+      <c r="I102" s="53"/>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B103" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="C101" s="9" t="s">
+      <c r="C103" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="D101" s="9"/>
-      <c r="E101" s="9"/>
-      <c r="F101" s="9"/>
-      <c r="G101" s="76"/>
-      <c r="H101" s="26"/>
-      <c r="I101" s="26"/>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B102" s="23" t="s">
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="51"/>
+      <c r="H103" s="14"/>
+      <c r="I103" s="14"/>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B104" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="C102" s="9" t="s">
+      <c r="C104" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="D102" s="9"/>
-      <c r="E102" s="9"/>
-      <c r="F102" s="9"/>
-      <c r="G102" s="76"/>
-      <c r="H102" s="26"/>
-      <c r="I102" s="26"/>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B103" s="38" t="s">
+      <c r="D104" s="7"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="7"/>
+      <c r="G104" s="51"/>
+      <c r="H104" s="14"/>
+      <c r="I104" s="14"/>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B105" s="58" t="s">
         <v>197</v>
       </c>
-      <c r="C103" s="38"/>
-      <c r="D103" s="38"/>
-      <c r="E103" s="38"/>
-      <c r="F103" s="38"/>
-      <c r="G103" s="38"/>
-      <c r="H103" s="38"/>
-      <c r="I103" s="38"/>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B104" s="23" t="s">
+      <c r="C105" s="58"/>
+      <c r="D105" s="58"/>
+      <c r="E105" s="58"/>
+      <c r="F105" s="58"/>
+      <c r="G105" s="58"/>
+      <c r="H105" s="58"/>
+      <c r="I105" s="58"/>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B106" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="C104" s="9" t="s">
+      <c r="C106" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="D104" s="9"/>
-      <c r="E104" s="9"/>
-      <c r="F104" s="9"/>
-      <c r="G104" s="24"/>
-      <c r="H104" s="25"/>
-      <c r="I104" s="26"/>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B105" s="23" t="s">
+      <c r="D106" s="7"/>
+      <c r="E106" s="7"/>
+      <c r="F106" s="7"/>
+      <c r="G106" s="59"/>
+      <c r="H106" s="60"/>
+      <c r="I106" s="14"/>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B107" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="C105" s="9" t="s">
+      <c r="C107" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="D105" s="9"/>
-      <c r="E105" s="9"/>
-      <c r="F105" s="9"/>
-      <c r="G105" s="24"/>
-      <c r="H105" s="25"/>
-      <c r="I105" s="26"/>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B106" s="38" t="s">
+      <c r="D107" s="7"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="7"/>
+      <c r="G107" s="59"/>
+      <c r="H107" s="60"/>
+      <c r="I107" s="14"/>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B108" s="58" t="s">
         <v>202</v>
       </c>
-      <c r="C106" s="38"/>
-      <c r="D106" s="38"/>
-      <c r="E106" s="38"/>
-      <c r="F106" s="38"/>
-      <c r="G106" s="38"/>
-      <c r="H106" s="38"/>
-      <c r="I106" s="38"/>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B107" s="23" t="s">
+      <c r="C108" s="58"/>
+      <c r="D108" s="58"/>
+      <c r="E108" s="58"/>
+      <c r="F108" s="58"/>
+      <c r="G108" s="58"/>
+      <c r="H108" s="58"/>
+      <c r="I108" s="58"/>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B109" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="C107" s="9" t="s">
+      <c r="C109" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="D107" s="81"/>
-      <c r="E107" s="9"/>
-      <c r="F107" s="9"/>
-      <c r="G107" s="11"/>
-      <c r="H107" s="12"/>
-      <c r="I107" s="18"/>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B108" s="23" t="s">
+      <c r="D109" s="54"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="7"/>
+      <c r="G109" s="56"/>
+      <c r="H109" s="57"/>
+      <c r="I109" s="10"/>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B110" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="C108" s="10" t="s">
+      <c r="C110" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="D108" s="81"/>
-      <c r="E108" s="9"/>
-      <c r="F108" s="9"/>
-      <c r="G108" s="11"/>
-      <c r="H108" s="12"/>
-      <c r="I108" s="18"/>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B109" s="23" t="s">
+      <c r="D110" s="54"/>
+      <c r="E110" s="7"/>
+      <c r="F110" s="7"/>
+      <c r="G110" s="56"/>
+      <c r="H110" s="57"/>
+      <c r="I110" s="10"/>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B111" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="C109" s="10" t="s">
+      <c r="C111" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="D109" s="82"/>
-      <c r="E109" s="9"/>
-      <c r="F109" s="9"/>
-      <c r="G109" s="11"/>
-      <c r="H109" s="12"/>
-      <c r="I109" s="18"/>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B110" s="23" t="s">
+      <c r="D111" s="55"/>
+      <c r="E111" s="7"/>
+      <c r="F111" s="7"/>
+      <c r="G111" s="56"/>
+      <c r="H111" s="57"/>
+      <c r="I111" s="10"/>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B112" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="C110" s="10" t="s">
+      <c r="C112" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="D110" s="81"/>
-      <c r="E110" s="9"/>
-      <c r="F110" s="9"/>
-      <c r="G110" s="11"/>
-      <c r="H110" s="12"/>
-      <c r="I110" s="18"/>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B111" s="38" t="s">
+      <c r="D112" s="54"/>
+      <c r="E112" s="7"/>
+      <c r="F112" s="7"/>
+      <c r="G112" s="56"/>
+      <c r="H112" s="57"/>
+      <c r="I112" s="10"/>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B113" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="C111" s="38"/>
-      <c r="D111" s="38"/>
-      <c r="E111" s="38"/>
-      <c r="F111" s="38"/>
-      <c r="G111" s="38"/>
-      <c r="H111" s="38"/>
-      <c r="I111" s="38"/>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B112" s="23" t="s">
+      <c r="C113" s="58"/>
+      <c r="D113" s="58"/>
+      <c r="E113" s="58"/>
+      <c r="F113" s="58"/>
+      <c r="G113" s="58"/>
+      <c r="H113" s="58"/>
+      <c r="I113" s="58"/>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B114" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="C112" s="10" t="s">
+      <c r="C114" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="D112" s="9"/>
-      <c r="E112" s="9"/>
-      <c r="F112" s="9"/>
-      <c r="G112" s="24"/>
-      <c r="H112" s="25"/>
-      <c r="I112" s="26"/>
+      <c r="D114" s="7"/>
+      <c r="E114" s="7"/>
+      <c r="F114" s="7"/>
+      <c r="G114" s="59"/>
+      <c r="H114" s="60"/>
+      <c r="I114" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="78">
-    <mergeCell ref="G107:H107"/>
-    <mergeCell ref="G108:H108"/>
-    <mergeCell ref="G109:H109"/>
-    <mergeCell ref="G110:H110"/>
-    <mergeCell ref="B111:I111"/>
-    <mergeCell ref="G112:H112"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="B103:I103"/>
-    <mergeCell ref="G104:H104"/>
-    <mergeCell ref="G105:H105"/>
-    <mergeCell ref="B106:I106"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="B93:I93"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="B95:I95"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="B90:I90"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="B78:I78"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="B72:I72"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="B63:I63"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="B66:I66"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="B59:I59"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="B61:I61"/>
-    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B113:I113"/>
+    <mergeCell ref="B74:I74"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
     <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
     <mergeCell ref="G42:H42"/>
     <mergeCell ref="G43:H43"/>
     <mergeCell ref="G44:H44"/>
     <mergeCell ref="G45:H45"/>
     <mergeCell ref="G46:H46"/>
     <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="B63:I63"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="B61:I61"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="B65:I65"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="B68:I68"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="B80:I80"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="B92:I92"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="B95:I95"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="B97:I97"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="G114:H114"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="B105:I105"/>
+    <mergeCell ref="G106:H106"/>
+    <mergeCell ref="G107:H107"/>
+    <mergeCell ref="B108:I108"/>
+    <mergeCell ref="G109:H109"/>
+    <mergeCell ref="G110:H110"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="G112:H112"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Lamia/toolprepro/base2_chantier/sousfiches/Orange.xlsx
+++ b/Lamia/toolprepro/base2_chantier/sousfiches/Orange.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A85130-5E7F-4324-8CE8-0B6D138E88D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B61302-7F9A-4D68-B823-8FA25D351349}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3960" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" iterateCount="1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="448">
   <si>
     <t>1.1.1</t>
   </si>
@@ -686,6 +686,700 @@
   </si>
   <si>
     <t>TEXT</t>
+  </si>
+  <si>
+    <t>Type de chambre</t>
+  </si>
+  <si>
+    <t>Type de poteau</t>
+  </si>
+  <si>
+    <t>1.3.12</t>
+  </si>
+  <si>
+    <t>Taille de l'armoire</t>
+  </si>
+  <si>
+    <t>1.4.18</t>
+  </si>
+  <si>
+    <t>2.2.1</t>
+  </si>
+  <si>
+    <t>2.2.2</t>
+  </si>
+  <si>
+    <t>2.2.3</t>
+  </si>
+  <si>
+    <t>2.2.4</t>
+  </si>
+  <si>
+    <t>CHAMBRE</t>
+  </si>
+  <si>
+    <t>2.2.5</t>
+  </si>
+  <si>
+    <t>RESPECT DES REGLES D'OCCUPATION DES ALVEOLES</t>
+  </si>
+  <si>
+    <t>2.2.6</t>
+  </si>
+  <si>
+    <t>ETANCHEITE DE LA BOITE</t>
+  </si>
+  <si>
+    <t>2.2.7</t>
+  </si>
+  <si>
+    <t>FIXATION DE LA BOITE</t>
+  </si>
+  <si>
+    <t>2.2.8</t>
+  </si>
+  <si>
+    <t>ETIQUETAGE DE LA BOITE</t>
+  </si>
+  <si>
+    <t>2.2.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSTALLATION DES ACCESSOIRES </t>
+  </si>
+  <si>
+    <t>2.2.10</t>
+  </si>
+  <si>
+    <t>REPERAGE DES CASSETTES (BAGUES AVEC NUMERO D'ORDRE)</t>
+  </si>
+  <si>
+    <t>2.2.11</t>
+  </si>
+  <si>
+    <t>PREPARATION, FIXATION ET REPERAGE DES CABLES</t>
+  </si>
+  <si>
+    <t>2.2.12</t>
+  </si>
+  <si>
+    <t>GESTION DES MICROMODULES RACCORDES (type de boîtier correspondant bien à sa fonction)</t>
+  </si>
+  <si>
+    <t>2.2.13</t>
+  </si>
+  <si>
+    <t>REPERAGE DES MICROMODULES, DES FIBRES</t>
+  </si>
+  <si>
+    <t>2.2.14</t>
+  </si>
+  <si>
+    <t>POSITION DES SMOOVES</t>
+  </si>
+  <si>
+    <t>2.2.15</t>
+  </si>
+  <si>
+    <t>RESPECT DES RAYONS DE COURBURE</t>
+  </si>
+  <si>
+    <t>2.2.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RANGEMENT DES MICROMODULES EN ATTENTE </t>
+  </si>
+  <si>
+    <t>2.2.17</t>
+  </si>
+  <si>
+    <t>CONTINUITE OPTIQUE ET MESURE DE REFLECTOMETRIE DES FIBRES EN 
+ATTENTES</t>
+  </si>
+  <si>
+    <t>2.2.18</t>
+  </si>
+  <si>
+    <t>DEGRAISSAGE DES FIBRES (EX : ALCOOL ISOPROPYLIQUE)</t>
+  </si>
+  <si>
+    <t>2.2.19</t>
+  </si>
+  <si>
+    <t>2.2 Transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Référence du NRO ou PEP Amont </t>
+  </si>
+  <si>
+    <t>Référence du PEP Aval</t>
+  </si>
+  <si>
+    <t>2.2.20</t>
+  </si>
+  <si>
+    <t>2.2.21</t>
+  </si>
+  <si>
+    <t>2.3 SRO - Porte gauche</t>
+  </si>
+  <si>
+    <t>2.3.1</t>
+  </si>
+  <si>
+    <t>2.3.2</t>
+  </si>
+  <si>
+    <t>2.3.3</t>
+  </si>
+  <si>
+    <t>2.3.4</t>
+  </si>
+  <si>
+    <t>SRO - Porte gauche</t>
+  </si>
+  <si>
+    <t>2.3.5</t>
+  </si>
+  <si>
+    <t>FIXATION/ POSITION/ IDENTIFICATION DU PLATEAU OPTIQUE DE BAIE (POB)</t>
+  </si>
+  <si>
+    <t>2.3.6</t>
+  </si>
+  <si>
+    <t>REPERAGE/ FIXATION/ EPANOUISSEMENT DU CABLE TRANSPORT</t>
+  </si>
+  <si>
+    <t>2.3.7</t>
+  </si>
+  <si>
+    <t>GESTION TUBE blolite OU MINIFLEX</t>
+  </si>
+  <si>
+    <t>2.3.8</t>
+  </si>
+  <si>
+    <t>GESTION DES FIBRES DU POB</t>
+  </si>
+  <si>
+    <t>2.3.9</t>
+  </si>
+  <si>
+    <t>DEGRAISSAGE DES FIBRES ARRIVANT DANS LE POB (EX : ALCOOL ISOPROPYLIQUE)</t>
+  </si>
+  <si>
+    <t>2.3.10</t>
+  </si>
+  <si>
+    <t>PASSAGE ET REPERAGE DES PIGTAILS DU POB</t>
+  </si>
+  <si>
+    <t>2.3.11</t>
+  </si>
+  <si>
+    <t>VERIFICATION CONTINUITE NRO-SRO AU STYLO OPTIQUE</t>
+  </si>
+  <si>
+    <t>2.3.12</t>
+  </si>
+  <si>
+    <t>2.3.13</t>
+  </si>
+  <si>
+    <t>2.4 SRO - Porte droite</t>
+  </si>
+  <si>
+    <t>SRO - Porte droite</t>
+  </si>
+  <si>
+    <t>2.4.1</t>
+  </si>
+  <si>
+    <t>FIXATION/ POSITION/ IDENTIFICATION DES MODULES DE 
+DISTRIBUTION</t>
+  </si>
+  <si>
+    <t>2.4.2</t>
+  </si>
+  <si>
+    <t>FIXATION/ POSITION DU PLATEAU OPTIQUE DE STOCKAGE (POS)</t>
+  </si>
+  <si>
+    <t>2.4.3</t>
+  </si>
+  <si>
+    <t>REPERAGE/ FIXATION/ EPANOUISSEMENT DES CABLES DE 
+DISTRIBUTION</t>
+  </si>
+  <si>
+    <t>2.4.4</t>
+  </si>
+  <si>
+    <t>GESTION TUBE bloolite/miniflex</t>
+  </si>
+  <si>
+    <t>2.4.5</t>
+  </si>
+  <si>
+    <t>GESTION DES FIBRES DU CABLE DE DISTRIBUTION</t>
+  </si>
+  <si>
+    <t>2.4.6</t>
+  </si>
+  <si>
+    <t>DEGRAISSAGE DES FIBRES DISTRIBUTION</t>
+  </si>
+  <si>
+    <t>2.4.7</t>
+  </si>
+  <si>
+    <t>GESTION DES MICROMODULES DU MODULE DE STOCKAGE</t>
+  </si>
+  <si>
+    <t>2.4.8</t>
+  </si>
+  <si>
+    <t>CONTINUITE OPTIQUE ET MESURE DE REFLECTOMETRIE DES FIBRES EN 
+ATTENTES (SI NECESSAIRE EN CAS DE DOUTE)</t>
+  </si>
+  <si>
+    <t>2.4.9</t>
+  </si>
+  <si>
+    <t>2.4.10</t>
+  </si>
+  <si>
+    <t>2.4.11</t>
+  </si>
+  <si>
+    <t>2.4.12</t>
+  </si>
+  <si>
+    <t>2.4.13</t>
+  </si>
+  <si>
+    <t>2.5 Distribution 1</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>2.5.1</t>
+  </si>
+  <si>
+    <t>2.5.2</t>
+  </si>
+  <si>
+    <t>2.5.3</t>
+  </si>
+  <si>
+    <t>2.5.4</t>
+  </si>
+  <si>
+    <t>REPERAGE DES CASSETTES</t>
+  </si>
+  <si>
+    <t>2.5.5</t>
+  </si>
+  <si>
+    <t>GESTION DES MICROMODULES RACCORDES</t>
+  </si>
+  <si>
+    <t>2.5.6</t>
+  </si>
+  <si>
+    <t>2.5.7</t>
+  </si>
+  <si>
+    <t>2.5.8</t>
+  </si>
+  <si>
+    <t>2.5.9</t>
+  </si>
+  <si>
+    <t>DEGRAISSAGE DES FIBRES</t>
+  </si>
+  <si>
+    <t>2.5.10</t>
+  </si>
+  <si>
+    <t>CHEMINEMENT DU CABLE ENTRE SRO ET PA</t>
+  </si>
+  <si>
+    <t>2.5.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POSE DE LA GAINE </t>
+  </si>
+  <si>
+    <t>2.5.12</t>
+  </si>
+  <si>
+    <t>2.5.13</t>
+  </si>
+  <si>
+    <t>ETIQUETTES  SUR LES CABLES</t>
+  </si>
+  <si>
+    <t>2.5.14</t>
+  </si>
+  <si>
+    <t>2.5.15</t>
+  </si>
+  <si>
+    <t>POSE DE CABLES EN AERIEN</t>
+  </si>
+  <si>
+    <t>2.5.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHEMINEMENT DU CABLE ENTRE SRO ET PA </t>
+  </si>
+  <si>
+    <t>2.5.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   TRANSITION AERO SOUTERRAINE</t>
+  </si>
+  <si>
+    <t>2.5.18</t>
+  </si>
+  <si>
+    <t>ABSENCE DE LOVE (SI ENEDIS OU ORANGE)</t>
+  </si>
+  <si>
+    <t>2.5.19</t>
+  </si>
+  <si>
+    <t>ARRIMAGE DU CABLE</t>
+  </si>
+  <si>
+    <t>2.5.20</t>
+  </si>
+  <si>
+    <t>ETIQUETTE SUR LE CABLE DE DISTRIBUTION</t>
+  </si>
+  <si>
+    <t>2.5.21</t>
+  </si>
+  <si>
+    <t>PROTECTION DU CABLE SUR LE POTEAU HSN/ POSE DE DEMI-LUNE</t>
+  </si>
+  <si>
+    <t>2.5.22</t>
+  </si>
+  <si>
+    <t>SEPARATION DE LA NAPPE CUIVRE ET OPTIQUE</t>
+  </si>
+  <si>
+    <t>2.5.23</t>
+  </si>
+  <si>
+    <t>RESPECT DES REGLES DE VOISINAGE CABLES ELECTRIQUES</t>
+  </si>
+  <si>
+    <t>2.5.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Référence du SRO ou PA Amont </t>
+  </si>
+  <si>
+    <t>Référence du PA Aval</t>
+  </si>
+  <si>
+    <t>2.5.25</t>
+  </si>
+  <si>
+    <t>2.5.26</t>
+  </si>
+  <si>
+    <t>2.6 Distribution 2</t>
+  </si>
+  <si>
+    <t>2.6.1</t>
+  </si>
+  <si>
+    <t>CHEMINEMENT DU CABLE ENTRE PA et PB</t>
+  </si>
+  <si>
+    <t>2.6.2</t>
+  </si>
+  <si>
+    <t>2.6.3</t>
+  </si>
+  <si>
+    <t>COURONNES DE CABLES (FIXATION ET LONGUEUR)</t>
+  </si>
+  <si>
+    <t>2.6.4</t>
+  </si>
+  <si>
+    <t>ETIQUETTES SUR LES CABLES</t>
+  </si>
+  <si>
+    <t>2.6.5</t>
+  </si>
+  <si>
+    <t>POTEAU</t>
+  </si>
+  <si>
+    <t>2.6.6</t>
+  </si>
+  <si>
+    <t>ETIQUETTES POTEAUX CONFORMES</t>
+  </si>
+  <si>
+    <t>2.6.7</t>
+  </si>
+  <si>
+    <t>BANDEAU VERT SUR POTEAUX ENEDIS</t>
+  </si>
+  <si>
+    <t>2.6.8</t>
+  </si>
+  <si>
+    <t>FIXATION ET POSITION DE REHAUSSES/TRAVERSES</t>
+  </si>
+  <si>
+    <t>2.6.9</t>
+  </si>
+  <si>
+    <t>2.6.10</t>
+  </si>
+  <si>
+    <t>2.6.11</t>
+  </si>
+  <si>
+    <t>RESPECT DES REGLES DE LOVE</t>
+  </si>
+  <si>
+    <t>2.6.12</t>
+  </si>
+  <si>
+    <t>2.6.13</t>
+  </si>
+  <si>
+    <t>2.6.14</t>
+  </si>
+  <si>
+    <t>PROTECTION DU CABLE SUR LE POTEAU/ POSE DE DEMI-LUNE</t>
+  </si>
+  <si>
+    <t>2.6.15</t>
+  </si>
+  <si>
+    <t>2.6.16</t>
+  </si>
+  <si>
+    <t>POSE DE CABLES EN FACADE</t>
+  </si>
+  <si>
+    <t>2.6.17</t>
+  </si>
+  <si>
+    <t>FIXATION/ CHEMINEMENT DU CABLE</t>
+  </si>
+  <si>
+    <t>2.6.18</t>
+  </si>
+  <si>
+    <t>TRANSITION AERO SOUTERRAINE</t>
+  </si>
+  <si>
+    <t>2.6.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   OBTURATION DE L'ALVEOLE D'ADDUCTION (REMPLACER SI EXISTANT)</t>
+  </si>
+  <si>
+    <t>2.6.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   CHEMINEMENT DU CABLE ENTRE PA ou PB ou PBI et PB (Alvéole)</t>
+  </si>
+  <si>
+    <t>2.6.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   RESPECT DES REGLES DE LOVAGE</t>
+  </si>
+  <si>
+    <t>2.6.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   ARRIMAGE DU CABLE</t>
+  </si>
+  <si>
+    <t>2.6.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   ETIQUETTE SUR LE CABLE DE DISTRIBUTION</t>
+  </si>
+  <si>
+    <t>2.6.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   PROTECTION DU CABLE SUR LE MUR / POSE DE DEMI-LUNE</t>
+  </si>
+  <si>
+    <t>PB EXTERIEUR</t>
+  </si>
+  <si>
+    <t>2.6.25</t>
+  </si>
+  <si>
+    <t>ETANCHEITE DU PB (exclusivement PB sout)</t>
+  </si>
+  <si>
+    <t>2.6.26</t>
+  </si>
+  <si>
+    <t>FIXATION ET POSITIONNEMENT DU PB</t>
+  </si>
+  <si>
+    <t>2.6.27</t>
+  </si>
+  <si>
+    <t>IDENTIFICATION DU PB</t>
+  </si>
+  <si>
+    <t>2.6.28</t>
+  </si>
+  <si>
+    <t>PREPARATION ET FIXATION DES CABLES DANS LE PB</t>
+  </si>
+  <si>
+    <t>2.6.29</t>
+  </si>
+  <si>
+    <t>GESTION DES CASSETTES</t>
+  </si>
+  <si>
+    <t>2.6.30</t>
+  </si>
+  <si>
+    <t>GESTION DES MICROMODULES DEDIES AU PB / DETUBAGE</t>
+  </si>
+  <si>
+    <t>2.6.31</t>
+  </si>
+  <si>
+    <t>GESTION DES MICROMODULES EN PASSAGE/TERMINAISON</t>
+  </si>
+  <si>
+    <t>2.6.32</t>
+  </si>
+  <si>
+    <t>RESPECT DU RAYON DE COURBURE</t>
+  </si>
+  <si>
+    <t>2.6.33</t>
+  </si>
+  <si>
+    <t>DEGRAISSAGE DES FIBRES DANS LE PB (EX : ALCOOL ISOPROPYLIQUE)</t>
+  </si>
+  <si>
+    <t>2.6.34</t>
+  </si>
+  <si>
+    <t>VERIFICATION CONTINUITE SRO-PB AU STYLO OPTIQUE</t>
+  </si>
+  <si>
+    <t>2.6.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Référence du PA ou BPE Amont </t>
+  </si>
+  <si>
+    <t>Référence du PB Aval</t>
+  </si>
+  <si>
+    <t>2.6.36</t>
+  </si>
+  <si>
+    <t>2.6.37</t>
+  </si>
+  <si>
+    <t>3.1 Etanchéité</t>
+  </si>
+  <si>
+    <t>3.1.1</t>
+  </si>
+  <si>
+    <t>Identifiant de la chambre d'arrivée</t>
+  </si>
+  <si>
+    <t>Diamètre fourreau (mm)</t>
+  </si>
+  <si>
+    <t>Longueur fourreau (m)</t>
+  </si>
+  <si>
+    <t>3.1.2</t>
+  </si>
+  <si>
+    <t>3.1.3</t>
+  </si>
+  <si>
+    <t>3.1.4</t>
+  </si>
+  <si>
+    <t>3.1.5</t>
+  </si>
+  <si>
+    <t>Demande de test d'étanchéité</t>
+  </si>
+  <si>
+    <t>3.2 Mandrinage</t>
+  </si>
+  <si>
+    <t>3.2.1</t>
+  </si>
+  <si>
+    <t>3.2.2</t>
+  </si>
+  <si>
+    <t>3.2.3</t>
+  </si>
+  <si>
+    <t>3.2.4</t>
+  </si>
+  <si>
+    <t>3.2.5</t>
+  </si>
+  <si>
+    <t>Demande de test mandrinage</t>
+  </si>
+  <si>
+    <t>3.3 Loc fourreaux</t>
+  </si>
+  <si>
+    <t>3.3.1</t>
+  </si>
+  <si>
+    <t>3.3.2</t>
+  </si>
+  <si>
+    <t>3.3.3</t>
+  </si>
+  <si>
+    <t>3.3.4</t>
+  </si>
+  <si>
+    <t>3.3.5</t>
+  </si>
+  <si>
+    <t>Demande de test loc fourreaux</t>
+  </si>
+  <si>
+    <t>3.4 Réflectométrie</t>
+  </si>
+  <si>
+    <t>3.4.1</t>
+  </si>
+  <si>
+    <t>Demande de test réflectométrie</t>
   </si>
 </sst>
 </file>
@@ -807,7 +1501,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -838,8 +1532,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -936,11 +1642,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1082,19 +1817,73 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1102,65 +1891,52 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1442,10 +2218,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I114"/>
+  <dimension ref="A1:I264"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
+      <selection activeCell="C270" sqref="C270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1524,25 +2300,28 @@
       <c r="A8" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="79" t="s">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="81" t="s">
+        <v>218</v>
+      </c>
+      <c r="D8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="79"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="C9" s="60"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1550,15 +2329,15 @@
         <v>15</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>18</v>
+      <c r="C12" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1566,7 +2345,7 @@
         <v>19</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1574,7 +2353,7 @@
         <v>21</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1582,7 +2361,7 @@
         <v>23</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1590,7 +2369,7 @@
         <v>25</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
@@ -1598,7 +2377,7 @@
         <v>27</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
@@ -1606,7 +2385,7 @@
         <v>29</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
@@ -1614,7 +2393,7 @@
         <v>31</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
@@ -1622,7 +2401,7 @@
         <v>33</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
@@ -1630,37 +2409,37 @@
         <v>35</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="78" t="s">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="78"/>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="C24" s="61"/>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>43</v>
+      <c r="C25" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
@@ -1668,7 +2447,7 @@
         <v>44</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
@@ -1676,7 +2455,7 @@
         <v>46</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
@@ -1684,7 +2463,7 @@
         <v>48</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
@@ -1692,7 +2471,7 @@
         <v>50</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
@@ -1700,7 +2479,7 @@
         <v>52</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
@@ -1708,7 +2487,7 @@
         <v>54</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
@@ -1716,988 +2495,984 @@
         <v>56</v>
       </c>
       <c r="C32" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="78" t="s">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="78"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="3" t="s">
+      <c r="C34" s="61"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C35" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>63</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B36" s="82" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="75"/>
-      <c r="H35" s="75"/>
-      <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D36" s="6"/>
+      <c r="C36" t="s">
+        <v>219</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>217</v>
+      </c>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
-      <c r="G36" s="75"/>
-      <c r="H36" s="75"/>
+      <c r="G36" s="62"/>
+      <c r="H36" s="62"/>
       <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="1" t="s">
-        <v>68</v>
+      <c r="B37" s="82" t="s">
+        <v>66</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
-      <c r="G37" s="76"/>
-      <c r="H37" s="77"/>
-      <c r="I37" s="1"/>
+      <c r="G37" s="59"/>
+      <c r="H37" s="59"/>
+      <c r="I37" s="59"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="1" t="s">
-        <v>70</v>
+      <c r="B38" s="82" t="s">
+        <v>68</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
-      <c r="G38" s="75"/>
-      <c r="H38" s="75"/>
+      <c r="G38" s="62"/>
+      <c r="H38" s="62"/>
       <c r="I38" s="1"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="1" t="s">
-        <v>72</v>
+      <c r="B39" s="82" t="s">
+        <v>70</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
-      <c r="G39" s="75"/>
-      <c r="H39" s="75"/>
+      <c r="G39" s="63"/>
+      <c r="H39" s="64"/>
       <c r="I39" s="1"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="1" t="s">
-        <v>74</v>
+      <c r="B40" s="82" t="s">
+        <v>72</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
-      <c r="G40" s="75"/>
-      <c r="H40" s="75"/>
+      <c r="G40" s="62"/>
+      <c r="H40" s="62"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B41" s="1" t="s">
-        <v>76</v>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="82" t="s">
+        <v>74</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
-      <c r="G41" s="75"/>
-      <c r="H41" s="75"/>
+      <c r="G41" s="62"/>
+      <c r="H41" s="62"/>
       <c r="I41" s="1"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="82" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="62"/>
+      <c r="H42" s="62"/>
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B43" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C43" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="62"/>
+      <c r="H43" s="62"/>
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="82" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="71"/>
-      <c r="H42" s="72"/>
-      <c r="I42" s="12"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="71"/>
-      <c r="H43" s="72"/>
-      <c r="I43" s="12"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>83</v>
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
-      <c r="G44" s="71"/>
-      <c r="H44" s="72"/>
+      <c r="G44" s="67"/>
+      <c r="H44" s="68"/>
       <c r="I44" s="12"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="1" t="s">
-        <v>84</v>
+      <c r="B45" s="82" t="s">
+        <v>82</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
-      <c r="G45" s="71"/>
-      <c r="H45" s="72"/>
+      <c r="G45" s="67"/>
+      <c r="H45" s="68"/>
       <c r="I45" s="12"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="B46" s="82" t="s">
+        <v>84</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="67"/>
+      <c r="H46" s="68"/>
+      <c r="I46" s="12"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="82" t="s">
+        <v>220</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="67"/>
+      <c r="H47" s="68"/>
+      <c r="I47" s="12"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>86</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B48" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="C46" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="59"/>
-      <c r="H46" s="60"/>
-      <c r="I46" s="14"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="59"/>
-      <c r="H47" s="60"/>
-      <c r="I47" s="14"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>92</v>
+      <c r="C48" t="s">
+        <v>221</v>
       </c>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
-      <c r="G48" s="56"/>
-      <c r="H48" s="57"/>
+      <c r="G48" s="69"/>
+      <c r="H48" s="70"/>
       <c r="I48" s="14"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="73"/>
-      <c r="H49" s="74"/>
-      <c r="I49" s="18"/>
+      <c r="B49" s="82" t="s">
+        <v>89</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="56"/>
+      <c r="H49" s="57"/>
+      <c r="I49" s="57"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B50" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>96</v>
+      <c r="B50" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>90</v>
       </c>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
-      <c r="G50" s="56"/>
-      <c r="H50" s="57"/>
-      <c r="I50" s="10"/>
+      <c r="G50" s="69"/>
+      <c r="H50" s="70"/>
+      <c r="I50" s="14"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B51" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>98</v>
+      <c r="B51" s="82" t="s">
+        <v>93</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>92</v>
       </c>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
-      <c r="G51" s="56"/>
-      <c r="H51" s="57"/>
-      <c r="I51" s="10"/>
+      <c r="G51" s="71"/>
+      <c r="H51" s="72"/>
+      <c r="I51" s="14"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="56"/>
-      <c r="H52" s="57"/>
-      <c r="I52" s="10"/>
+      <c r="B52" s="82" t="s">
+        <v>95</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="65"/>
+      <c r="H52" s="66"/>
+      <c r="I52" s="18"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="13" t="s">
-        <v>101</v>
+      <c r="B53" s="82" t="s">
+        <v>97</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
-      <c r="G53" s="59"/>
-      <c r="H53" s="60"/>
-      <c r="I53" s="14"/>
+      <c r="G53" s="71"/>
+      <c r="H53" s="72"/>
+      <c r="I53" s="10"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="13" t="s">
-        <v>103</v>
+      <c r="B54" s="82" t="s">
+        <v>99</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
-      <c r="G54" s="56"/>
-      <c r="H54" s="57"/>
+      <c r="G54" s="71"/>
+      <c r="H54" s="72"/>
       <c r="I54" s="10"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B55" s="13" t="s">
-        <v>105</v>
+      <c r="B55" s="82" t="s">
+        <v>101</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
-      <c r="G55" s="59"/>
-      <c r="H55" s="60"/>
-      <c r="I55" s="14"/>
+      <c r="G55" s="71"/>
+      <c r="H55" s="72"/>
+      <c r="I55" s="10"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B56" s="13" t="s">
-        <v>107</v>
+      <c r="B56" s="82" t="s">
+        <v>103</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
-      <c r="G56" s="59"/>
-      <c r="H56" s="60"/>
+      <c r="G56" s="69"/>
+      <c r="H56" s="70"/>
       <c r="I56" s="14"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B57" s="13" t="s">
-        <v>109</v>
+      <c r="B57" s="82" t="s">
+        <v>105</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
-      <c r="G57" s="59"/>
-      <c r="H57" s="60"/>
-      <c r="I57" s="14"/>
+      <c r="G57" s="71"/>
+      <c r="H57" s="72"/>
+      <c r="I57" s="10"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="C58" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
+      <c r="B58" s="82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
       <c r="G58" s="69"/>
       <c r="H58" s="70"/>
-      <c r="I58" s="19"/>
+      <c r="I58" s="14"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="13" t="s">
+      <c r="B59" s="82" t="s">
+        <v>109</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="69"/>
+      <c r="H59" s="70"/>
+      <c r="I59" s="14"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="82" t="s">
+        <v>111</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="69"/>
+      <c r="H60" s="70"/>
+      <c r="I60" s="14"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="82" t="s">
         <v>113</v>
       </c>
-      <c r="C59" s="20" t="s">
+      <c r="C61" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="73"/>
+      <c r="H61" s="74"/>
+      <c r="I61" s="19"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B62" s="82" t="s">
+        <v>115</v>
+      </c>
+      <c r="C62" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="D59" s="20"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="20"/>
-      <c r="G59" s="21"/>
-      <c r="H59" s="21"/>
-      <c r="I59" s="21"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="C60" s="20" t="s">
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="21"/>
+      <c r="I62" s="21"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B63" s="82" t="s">
+        <v>118</v>
+      </c>
+      <c r="C63" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="D60" s="20"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="20"/>
-      <c r="G60" s="21"/>
-      <c r="H60" s="21"/>
-      <c r="I60" s="21"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B61" s="58" t="s">
+      <c r="D63" s="20"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="21"/>
+      <c r="I63" s="21"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B64" s="85" t="s">
         <v>117</v>
       </c>
-      <c r="C61" s="58"/>
-      <c r="D61" s="58"/>
-      <c r="E61" s="58"/>
-      <c r="F61" s="58"/>
-      <c r="G61" s="58"/>
-      <c r="H61" s="58"/>
-      <c r="I61" s="58"/>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C62" s="7" t="s">
+      <c r="C64" s="85"/>
+      <c r="D64" s="85"/>
+      <c r="E64" s="85"/>
+      <c r="F64" s="85"/>
+      <c r="G64" s="85"/>
+      <c r="H64" s="85"/>
+      <c r="I64" s="85"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B65" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C65" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="59"/>
-      <c r="H62" s="60"/>
-      <c r="I62" s="14"/>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B63" s="58" t="s">
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="69"/>
+      <c r="H65" s="70"/>
+      <c r="I65" s="14"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B66" s="85" t="s">
         <v>120</v>
       </c>
-      <c r="C63" s="58"/>
-      <c r="D63" s="58"/>
-      <c r="E63" s="58"/>
-      <c r="F63" s="58"/>
-      <c r="G63" s="58"/>
-      <c r="H63" s="58"/>
-      <c r="I63" s="58"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B64" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="C64" s="7" t="s">
+      <c r="C66" s="85"/>
+      <c r="D66" s="85"/>
+      <c r="E66" s="85"/>
+      <c r="F66" s="85"/>
+      <c r="G66" s="85"/>
+      <c r="H66" s="85"/>
+      <c r="I66" s="85"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B67" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="C67" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="59"/>
-      <c r="H64" s="60"/>
-      <c r="I64" s="14"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="69"/>
+      <c r="H67" s="70"/>
+      <c r="I67" s="14"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>123</v>
       </c>
-      <c r="B65" s="64" t="s">
+      <c r="B68" s="86" t="s">
         <v>124</v>
       </c>
-      <c r="C65" s="65"/>
-      <c r="D65" s="65"/>
-      <c r="E65" s="65"/>
-      <c r="F65" s="65"/>
-      <c r="G65" s="65"/>
-      <c r="H65" s="65"/>
-      <c r="I65" s="82"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B66" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="C66" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="D66" s="24"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="26"/>
-      <c r="G66" s="67"/>
-      <c r="H66" s="68"/>
-      <c r="I66" s="22"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B67" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="C67" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="D67" s="28"/>
-      <c r="E67" s="29"/>
-      <c r="F67" s="16"/>
-      <c r="G67" s="63"/>
-      <c r="H67" s="63"/>
-      <c r="I67" s="30"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B68" s="64" t="s">
-        <v>129</v>
-      </c>
-      <c r="C68" s="65"/>
-      <c r="D68" s="65"/>
-      <c r="E68" s="65"/>
-      <c r="F68" s="65"/>
-      <c r="G68" s="65"/>
-      <c r="H68" s="65"/>
-      <c r="I68" s="82"/>
+      <c r="C68" s="87"/>
+      <c r="D68" s="87"/>
+      <c r="E68" s="87"/>
+      <c r="F68" s="87"/>
+      <c r="G68" s="87"/>
+      <c r="H68" s="87"/>
+      <c r="I68" s="88"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B69" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="C69" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="D69" s="28"/>
-      <c r="E69" s="31"/>
-      <c r="F69" s="32"/>
-      <c r="G69" s="63"/>
-      <c r="H69" s="63"/>
-      <c r="I69" s="30"/>
+        <v>125</v>
+      </c>
+      <c r="C69" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="D69" s="24"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="76"/>
+      <c r="H69" s="77"/>
+      <c r="I69" s="22"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B70" s="22" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C70" s="27" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D70" s="28"/>
-      <c r="E70" s="33"/>
-      <c r="F70" s="34"/>
-      <c r="G70" s="63"/>
-      <c r="H70" s="63"/>
+      <c r="E70" s="29"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="75"/>
+      <c r="H70" s="75"/>
       <c r="I70" s="30"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B71" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="C71" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="D71" s="28"/>
-      <c r="E71" s="28"/>
-      <c r="F71" s="35"/>
-      <c r="G71" s="63"/>
-      <c r="H71" s="63"/>
-      <c r="I71" s="30"/>
+      <c r="B71" s="86" t="s">
+        <v>129</v>
+      </c>
+      <c r="C71" s="87"/>
+      <c r="D71" s="87"/>
+      <c r="E71" s="87"/>
+      <c r="F71" s="87"/>
+      <c r="G71" s="87"/>
+      <c r="H71" s="87"/>
+      <c r="I71" s="88"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B72" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="C72" s="36" t="s">
-        <v>137</v>
+        <v>130</v>
+      </c>
+      <c r="C72" s="27" t="s">
+        <v>131</v>
       </c>
       <c r="D72" s="28"/>
-      <c r="E72" s="28"/>
-      <c r="F72" s="37"/>
-      <c r="G72" s="63"/>
-      <c r="H72" s="63"/>
+      <c r="E72" s="31"/>
+      <c r="F72" s="32"/>
+      <c r="G72" s="75"/>
+      <c r="H72" s="75"/>
       <c r="I72" s="30"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B73" s="22" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C73" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="D73" s="38"/>
-      <c r="E73" s="16"/>
-      <c r="F73" s="16"/>
-      <c r="G73" s="63"/>
-      <c r="H73" s="63"/>
+        <v>133</v>
+      </c>
+      <c r="D73" s="28"/>
+      <c r="E73" s="33"/>
+      <c r="F73" s="34"/>
+      <c r="G73" s="75"/>
+      <c r="H73" s="75"/>
       <c r="I73" s="30"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B74" s="64" t="s">
-        <v>140</v>
-      </c>
-      <c r="C74" s="65"/>
-      <c r="D74" s="65"/>
-      <c r="E74" s="65"/>
-      <c r="F74" s="65"/>
-      <c r="G74" s="65"/>
-      <c r="H74" s="65"/>
-      <c r="I74" s="65"/>
+      <c r="B74" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="C74" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="D74" s="28"/>
+      <c r="E74" s="28"/>
+      <c r="F74" s="35"/>
+      <c r="G74" s="75"/>
+      <c r="H74" s="75"/>
+      <c r="I74" s="30"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B75" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="C75" s="39" t="s">
-        <v>142</v>
+        <v>136</v>
+      </c>
+      <c r="C75" s="36" t="s">
+        <v>137</v>
       </c>
       <c r="D75" s="28"/>
-      <c r="E75" s="29"/>
-      <c r="F75" s="16"/>
-      <c r="G75" s="63"/>
-      <c r="H75" s="63"/>
+      <c r="E75" s="28"/>
+      <c r="F75" s="37"/>
+      <c r="G75" s="75"/>
+      <c r="H75" s="75"/>
       <c r="I75" s="30"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B76" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="C76" s="40" t="s">
-        <v>144</v>
-      </c>
-      <c r="D76" s="28"/>
-      <c r="E76" s="41"/>
-      <c r="F76" s="41"/>
-      <c r="G76" s="63"/>
-      <c r="H76" s="63"/>
+        <v>138</v>
+      </c>
+      <c r="C76" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="D76" s="38"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="75"/>
+      <c r="H76" s="75"/>
       <c r="I76" s="30"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B77" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="C77" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="D77" s="43"/>
-      <c r="E77" s="16"/>
-      <c r="F77" s="16"/>
-      <c r="G77" s="63"/>
-      <c r="H77" s="63"/>
-      <c r="I77" s="30"/>
+      <c r="B77" s="86" t="s">
+        <v>140</v>
+      </c>
+      <c r="C77" s="87"/>
+      <c r="D77" s="87"/>
+      <c r="E77" s="87"/>
+      <c r="F77" s="87"/>
+      <c r="G77" s="87"/>
+      <c r="H77" s="87"/>
+      <c r="I77" s="87"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B78" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="C78" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="E78" s="16"/>
+        <v>141</v>
+      </c>
+      <c r="C78" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="D78" s="28"/>
+      <c r="E78" s="29"/>
       <c r="F78" s="16"/>
-      <c r="G78" s="63"/>
-      <c r="H78" s="63"/>
+      <c r="G78" s="75"/>
+      <c r="H78" s="75"/>
       <c r="I78" s="30"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B79" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="C79" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="D79" s="28"/>
+      <c r="E79" s="41"/>
+      <c r="F79" s="41"/>
+      <c r="G79" s="75"/>
+      <c r="H79" s="75"/>
+      <c r="I79" s="30"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B80" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="C80" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="D80" s="43"/>
+      <c r="E80" s="16"/>
+      <c r="F80" s="16"/>
+      <c r="G80" s="75"/>
+      <c r="H80" s="75"/>
+      <c r="I80" s="30"/>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B81" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C81" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="E81" s="16"/>
+      <c r="F81" s="16"/>
+      <c r="G81" s="75"/>
+      <c r="H81" s="75"/>
+      <c r="I81" s="30"/>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B82" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="C79" s="44" t="s">
+      <c r="C82" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="D79" s="45"/>
-      <c r="E79" s="46"/>
-      <c r="F79" s="46"/>
-      <c r="G79" s="66"/>
-      <c r="H79" s="66"/>
-      <c r="I79" s="47"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B80" s="80" t="s">
+      <c r="D82" s="45"/>
+      <c r="E82" s="46"/>
+      <c r="F82" s="46"/>
+      <c r="G82" s="78"/>
+      <c r="H82" s="78"/>
+      <c r="I82" s="47"/>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B83" s="89" t="s">
         <v>150</v>
       </c>
-      <c r="C80" s="58"/>
-      <c r="D80" s="58"/>
-      <c r="E80" s="58"/>
-      <c r="F80" s="58"/>
-      <c r="G80" s="58"/>
-      <c r="H80" s="58"/>
-      <c r="I80" s="81"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B81" s="22" t="s">
+      <c r="C83" s="85"/>
+      <c r="D83" s="85"/>
+      <c r="E83" s="85"/>
+      <c r="F83" s="85"/>
+      <c r="G83" s="85"/>
+      <c r="H83" s="85"/>
+      <c r="I83" s="90"/>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B84" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="C81" s="28" t="s">
+      <c r="C84" s="28" t="s">
         <v>152</v>
-      </c>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="56"/>
-      <c r="H81" s="57"/>
-      <c r="I81" s="48"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B82" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="C82" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
-      <c r="G82" s="56"/>
-      <c r="H82" s="57"/>
-      <c r="I82" s="48"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B83" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="C83" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="56"/>
-      <c r="H83" s="57"/>
-      <c r="I83" s="48"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B84" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="C84" s="28" t="s">
-        <v>158</v>
       </c>
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
       <c r="F84" s="7"/>
-      <c r="G84" s="56"/>
-      <c r="H84" s="57"/>
+      <c r="G84" s="71"/>
+      <c r="H84" s="72"/>
       <c r="I84" s="48"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" s="22" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C85" s="28" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
       <c r="F85" s="7"/>
-      <c r="G85" s="56"/>
-      <c r="H85" s="57"/>
+      <c r="G85" s="71"/>
+      <c r="H85" s="72"/>
       <c r="I85" s="48"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B86" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="C86" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="71"/>
+      <c r="H86" s="72"/>
+      <c r="I86" s="48"/>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B87" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="C87" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="71"/>
+      <c r="H87" s="72"/>
+      <c r="I87" s="48"/>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B88" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="C88" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="71"/>
+      <c r="H88" s="72"/>
+      <c r="I88" s="48"/>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B89" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="C86" s="49" t="s">
+      <c r="C89" s="49" t="s">
         <v>162</v>
-      </c>
-      <c r="D86" s="17"/>
-      <c r="E86" s="17"/>
-      <c r="F86" s="17"/>
-      <c r="G86" s="56"/>
-      <c r="H86" s="57"/>
-      <c r="I86" s="48"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B87" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="C87" s="50" t="s">
-        <v>164</v>
-      </c>
-      <c r="D87" s="17"/>
-      <c r="E87" s="17"/>
-      <c r="F87" s="17"/>
-      <c r="G87" s="56"/>
-      <c r="H87" s="57"/>
-      <c r="I87" s="48"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B88" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="C88" s="49" t="s">
-        <v>166</v>
-      </c>
-      <c r="D88" s="17"/>
-      <c r="E88" s="17"/>
-      <c r="F88" s="17"/>
-      <c r="G88" s="56"/>
-      <c r="H88" s="57"/>
-      <c r="I88" s="48"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B89" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="C89" s="49" t="s">
-        <v>168</v>
       </c>
       <c r="D89" s="17"/>
       <c r="E89" s="17"/>
       <c r="F89" s="17"/>
-      <c r="G89" s="56"/>
-      <c r="H89" s="57"/>
+      <c r="G89" s="71"/>
+      <c r="H89" s="72"/>
       <c r="I89" s="48"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B90" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="C90" s="49" t="s">
-        <v>170</v>
+        <v>163</v>
+      </c>
+      <c r="C90" s="50" t="s">
+        <v>164</v>
       </c>
       <c r="D90" s="17"/>
       <c r="E90" s="17"/>
       <c r="F90" s="17"/>
-      <c r="G90" s="56"/>
-      <c r="H90" s="57"/>
+      <c r="G90" s="71"/>
+      <c r="H90" s="72"/>
       <c r="I90" s="48"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B91" s="22" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C91" s="49" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D91" s="17"/>
       <c r="E91" s="17"/>
       <c r="F91" s="17"/>
-      <c r="G91" s="56"/>
-      <c r="H91" s="57"/>
+      <c r="G91" s="71"/>
+      <c r="H91" s="72"/>
       <c r="I91" s="48"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B92" s="64" t="s">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B92" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="C92" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="D92" s="17"/>
+      <c r="E92" s="17"/>
+      <c r="F92" s="17"/>
+      <c r="G92" s="71"/>
+      <c r="H92" s="72"/>
+      <c r="I92" s="48"/>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B93" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="C93" s="49" t="s">
+        <v>170</v>
+      </c>
+      <c r="D93" s="17"/>
+      <c r="E93" s="17"/>
+      <c r="F93" s="17"/>
+      <c r="G93" s="71"/>
+      <c r="H93" s="72"/>
+      <c r="I93" s="48"/>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B94" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="C94" s="49" t="s">
+        <v>172</v>
+      </c>
+      <c r="D94" s="17"/>
+      <c r="E94" s="17"/>
+      <c r="F94" s="17"/>
+      <c r="G94" s="71"/>
+      <c r="H94" s="72"/>
+      <c r="I94" s="48"/>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B95" s="86" t="s">
         <v>173</v>
       </c>
-      <c r="C92" s="65"/>
-      <c r="D92" s="65"/>
-      <c r="E92" s="65"/>
-      <c r="F92" s="65"/>
-      <c r="G92" s="65"/>
-      <c r="H92" s="65"/>
-      <c r="I92" s="65"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B93" s="22" t="s">
+      <c r="C95" s="87"/>
+      <c r="D95" s="87"/>
+      <c r="E95" s="87"/>
+      <c r="F95" s="87"/>
+      <c r="G95" s="87"/>
+      <c r="H95" s="87"/>
+      <c r="I95" s="87"/>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B96" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="C93" s="39" t="s">
+      <c r="C96" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="D93" s="16"/>
-      <c r="E93" s="16"/>
-      <c r="F93" s="16"/>
-      <c r="G93" s="63"/>
-      <c r="H93" s="63"/>
-      <c r="I93" s="30"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B94" s="22" t="s">
+      <c r="D96" s="16"/>
+      <c r="E96" s="16"/>
+      <c r="F96" s="16"/>
+      <c r="G96" s="75"/>
+      <c r="H96" s="75"/>
+      <c r="I96" s="30"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B97" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="C94" s="39" t="s">
+      <c r="C97" s="39" t="s">
         <v>177</v>
       </c>
-      <c r="D94" s="16"/>
-      <c r="E94" s="16"/>
-      <c r="F94" s="16"/>
-      <c r="G94" s="63"/>
-      <c r="H94" s="63"/>
-      <c r="I94" s="30"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="D97" s="16"/>
+      <c r="E97" s="16"/>
+      <c r="F97" s="16"/>
+      <c r="G97" s="75"/>
+      <c r="H97" s="75"/>
+      <c r="I97" s="30"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>178</v>
       </c>
-      <c r="B95" s="58" t="s">
+      <c r="B98" s="85" t="s">
         <v>179</v>
       </c>
-      <c r="C95" s="58"/>
-      <c r="D95" s="58"/>
-      <c r="E95" s="58"/>
-      <c r="F95" s="58"/>
-      <c r="G95" s="58"/>
-      <c r="H95" s="58"/>
-      <c r="I95" s="58"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B96" s="13" t="s">
+      <c r="C98" s="85"/>
+      <c r="D98" s="85"/>
+      <c r="E98" s="85"/>
+      <c r="F98" s="85"/>
+      <c r="G98" s="85"/>
+      <c r="H98" s="85"/>
+      <c r="I98" s="85"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B99" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="C96" s="15" t="s">
+      <c r="C99" s="15" t="s">
         <v>181</v>
-      </c>
-      <c r="D96" s="7"/>
-      <c r="E96" s="7"/>
-      <c r="F96" s="7"/>
-      <c r="G96" s="59"/>
-      <c r="H96" s="60"/>
-      <c r="I96" s="14"/>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B97" s="58" t="s">
-        <v>182</v>
-      </c>
-      <c r="C97" s="58"/>
-      <c r="D97" s="58"/>
-      <c r="E97" s="58"/>
-      <c r="F97" s="58"/>
-      <c r="G97" s="58"/>
-      <c r="H97" s="58"/>
-      <c r="I97" s="58"/>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B98" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="C98" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="D98" s="7"/>
-      <c r="E98" s="7"/>
-      <c r="F98" s="7"/>
-      <c r="G98" s="56"/>
-      <c r="H98" s="57"/>
-      <c r="I98" s="10"/>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B99" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="C99" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="D99" s="7"/>
       <c r="E99" s="7"/>
       <c r="F99" s="7"/>
-      <c r="G99" s="59"/>
-      <c r="H99" s="60"/>
+      <c r="G99" s="69"/>
+      <c r="H99" s="70"/>
       <c r="I99" s="14"/>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B100" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="C100" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="D100" s="7"/>
-      <c r="E100" s="7"/>
-      <c r="F100" s="7"/>
-      <c r="G100" s="59"/>
-      <c r="H100" s="60"/>
-      <c r="I100" s="14"/>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B100" s="85" t="s">
+        <v>182</v>
+      </c>
+      <c r="C100" s="85"/>
+      <c r="D100" s="85"/>
+      <c r="E100" s="85"/>
+      <c r="F100" s="85"/>
+      <c r="G100" s="85"/>
+      <c r="H100" s="85"/>
+      <c r="I100" s="85"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B101" s="13" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D101" s="7"/>
       <c r="E101" s="7"/>
       <c r="F101" s="7"/>
-      <c r="G101" s="51"/>
-      <c r="H101" s="14"/>
-      <c r="I101" s="14"/>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G101" s="71"/>
+      <c r="H101" s="72"/>
+      <c r="I101" s="10"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B102" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="C102" s="52" t="s">
-        <v>192</v>
-      </c>
-      <c r="D102" s="53"/>
-      <c r="E102" s="53"/>
-      <c r="F102" s="53"/>
-      <c r="G102" s="61"/>
-      <c r="H102" s="62"/>
-      <c r="I102" s="53"/>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="7"/>
+      <c r="G102" s="69"/>
+      <c r="H102" s="70"/>
+      <c r="I102" s="14"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B103" s="13" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D103" s="7"/>
       <c r="E103" s="7"/>
       <c r="F103" s="7"/>
-      <c r="G103" s="51"/>
-      <c r="H103" s="14"/>
+      <c r="G103" s="69"/>
+      <c r="H103" s="70"/>
       <c r="I103" s="14"/>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B104" s="13" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D104" s="7"/>
       <c r="E104" s="7"/>
@@ -2706,153 +3481,1464 @@
       <c r="H104" s="14"/>
       <c r="I104" s="14"/>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B105" s="58" t="s">
-        <v>197</v>
-      </c>
-      <c r="C105" s="58"/>
-      <c r="D105" s="58"/>
-      <c r="E105" s="58"/>
-      <c r="F105" s="58"/>
-      <c r="G105" s="58"/>
-      <c r="H105" s="58"/>
-      <c r="I105" s="58"/>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B105" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="C105" s="52" t="s">
+        <v>192</v>
+      </c>
+      <c r="D105" s="53"/>
+      <c r="E105" s="53"/>
+      <c r="F105" s="53"/>
+      <c r="G105" s="79"/>
+      <c r="H105" s="80"/>
+      <c r="I105" s="53"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B106" s="13" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D106" s="7"/>
       <c r="E106" s="7"/>
       <c r="F106" s="7"/>
-      <c r="G106" s="59"/>
-      <c r="H106" s="60"/>
+      <c r="G106" s="51"/>
+      <c r="H106" s="14"/>
       <c r="I106" s="14"/>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B107" s="13" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D107" s="7"/>
       <c r="E107" s="7"/>
       <c r="F107" s="7"/>
-      <c r="G107" s="59"/>
-      <c r="H107" s="60"/>
+      <c r="G107" s="51"/>
+      <c r="H107" s="14"/>
       <c r="I107" s="14"/>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B108" s="58" t="s">
-        <v>202</v>
-      </c>
-      <c r="C108" s="58"/>
-      <c r="D108" s="58"/>
-      <c r="E108" s="58"/>
-      <c r="F108" s="58"/>
-      <c r="G108" s="58"/>
-      <c r="H108" s="58"/>
-      <c r="I108" s="58"/>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B108" s="85" t="s">
+        <v>197</v>
+      </c>
+      <c r="C108" s="85"/>
+      <c r="D108" s="85"/>
+      <c r="E108" s="85"/>
+      <c r="F108" s="85"/>
+      <c r="G108" s="85"/>
+      <c r="H108" s="85"/>
+      <c r="I108" s="85"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B109" s="13" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="D109" s="54"/>
+        <v>199</v>
+      </c>
+      <c r="D109" s="7"/>
       <c r="E109" s="7"/>
       <c r="F109" s="7"/>
-      <c r="G109" s="56"/>
-      <c r="H109" s="57"/>
-      <c r="I109" s="10"/>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G109" s="69"/>
+      <c r="H109" s="70"/>
+      <c r="I109" s="14"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B110" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="C110" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="D110" s="54"/>
+        <v>200</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D110" s="7"/>
       <c r="E110" s="7"/>
       <c r="F110" s="7"/>
-      <c r="G110" s="56"/>
-      <c r="H110" s="57"/>
-      <c r="I110" s="10"/>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B111" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="C111" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="D111" s="55"/>
-      <c r="E111" s="7"/>
-      <c r="F111" s="7"/>
-      <c r="G111" s="56"/>
-      <c r="H111" s="57"/>
-      <c r="I111" s="10"/>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G110" s="69"/>
+      <c r="H110" s="70"/>
+      <c r="I110" s="14"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B111" s="85" t="s">
+        <v>202</v>
+      </c>
+      <c r="C111" s="85"/>
+      <c r="D111" s="85"/>
+      <c r="E111" s="85"/>
+      <c r="F111" s="85"/>
+      <c r="G111" s="85"/>
+      <c r="H111" s="85"/>
+      <c r="I111" s="85"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B112" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="C112" s="8" t="s">
-        <v>210</v>
+        <v>203</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>204</v>
       </c>
       <c r="D112" s="54"/>
       <c r="E112" s="7"/>
       <c r="F112" s="7"/>
-      <c r="G112" s="56"/>
-      <c r="H112" s="57"/>
+      <c r="G112" s="71"/>
+      <c r="H112" s="72"/>
       <c r="I112" s="10"/>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B113" s="58" t="s">
-        <v>120</v>
-      </c>
-      <c r="C113" s="58"/>
-      <c r="D113" s="58"/>
-      <c r="E113" s="58"/>
-      <c r="F113" s="58"/>
-      <c r="G113" s="58"/>
-      <c r="H113" s="58"/>
-      <c r="I113" s="58"/>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B113" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D113" s="54"/>
+      <c r="E113" s="7"/>
+      <c r="F113" s="7"/>
+      <c r="G113" s="71"/>
+      <c r="H113" s="72"/>
+      <c r="I113" s="10"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B114" s="13" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="D114" s="7"/>
+        <v>208</v>
+      </c>
+      <c r="D114" s="55"/>
       <c r="E114" s="7"/>
       <c r="F114" s="7"/>
-      <c r="G114" s="59"/>
-      <c r="H114" s="60"/>
-      <c r="I114" s="14"/>
+      <c r="G114" s="71"/>
+      <c r="H114" s="72"/>
+      <c r="I114" s="10"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B115" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D115" s="54"/>
+      <c r="E115" s="7"/>
+      <c r="F115" s="7"/>
+      <c r="G115" s="71"/>
+      <c r="H115" s="72"/>
+      <c r="I115" s="10"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B116" s="85" t="s">
+        <v>120</v>
+      </c>
+      <c r="C116" s="85"/>
+      <c r="D116" s="85"/>
+      <c r="E116" s="85"/>
+      <c r="F116" s="85"/>
+      <c r="G116" s="85"/>
+      <c r="H116" s="85"/>
+      <c r="I116" s="85"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B117" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="D117" s="7"/>
+      <c r="E117" s="7"/>
+      <c r="F117" s="7"/>
+      <c r="G117" s="69"/>
+      <c r="H117" s="70"/>
+      <c r="I117" s="14"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>257</v>
+      </c>
+      <c r="B118" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="C118" t="s">
+        <v>258</v>
+      </c>
+      <c r="D118" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B119" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="C119" t="s">
+        <v>259</v>
+      </c>
+      <c r="D119" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B120" s="83" t="s">
+        <v>202</v>
+      </c>
+      <c r="C120" s="84"/>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B121" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B122" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B123" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B124" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B125" s="83" t="s">
+        <v>227</v>
+      </c>
+      <c r="C125" s="84"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B126" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B127" s="83" t="s">
+        <v>140</v>
+      </c>
+      <c r="C127" s="84"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B128" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B129" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B130" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B131" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B132" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B133" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B134" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B135" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B136" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B137" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B138" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B139" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B140" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B141" s="83" t="s">
+        <v>173</v>
+      </c>
+      <c r="C141" s="84"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B142" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>262</v>
+      </c>
+      <c r="B143" s="93" t="s">
+        <v>263</v>
+      </c>
+      <c r="C143" t="s">
+        <v>258</v>
+      </c>
+      <c r="D143" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B144" s="91" t="s">
+        <v>202</v>
+      </c>
+      <c r="C144" s="92"/>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B145" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B146" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B147" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B148" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B149" s="91" t="s">
+        <v>267</v>
+      </c>
+      <c r="C149" s="92"/>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B150" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="C150" s="7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B151" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B152" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B153" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B154" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B155" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B156" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B157" s="91" t="s">
+        <v>173</v>
+      </c>
+      <c r="C157" s="92"/>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B158" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>284</v>
+      </c>
+      <c r="B159" s="89" t="s">
+        <v>285</v>
+      </c>
+      <c r="C159" s="85"/>
+    </row>
+    <row r="160" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B160" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="C160" s="94" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B161" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="C161" s="95" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B162" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="C162" s="94" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B163" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="C163" s="95" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B164" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="C164" s="95" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B165" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="C165" s="95" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B166" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="C166" s="95" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B167" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="C167" s="96" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B168" s="86" t="s">
+        <v>202</v>
+      </c>
+      <c r="C168" s="87"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B169" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="C169" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B170" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="C170" s="97" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B171" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="C171" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B172" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="C172" s="97" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B173" s="86" t="s">
+        <v>173</v>
+      </c>
+      <c r="C173" s="87"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B174" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="C174" s="98" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>307</v>
+      </c>
+      <c r="B175" s="58" t="s">
+        <v>309</v>
+      </c>
+      <c r="C175" t="s">
+        <v>348</v>
+      </c>
+      <c r="D175" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B176" s="58" t="s">
+        <v>310</v>
+      </c>
+      <c r="C176" t="s">
+        <v>349</v>
+      </c>
+      <c r="D176" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="177" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B177" s="89" t="s">
+        <v>308</v>
+      </c>
+      <c r="C177" s="85"/>
+    </row>
+    <row r="178" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B178" s="58" t="s">
+        <v>311</v>
+      </c>
+      <c r="C178" s="99" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="179" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B179" s="58" t="s">
+        <v>312</v>
+      </c>
+      <c r="C179" s="99" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="180" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B180" s="58" t="s">
+        <v>314</v>
+      </c>
+      <c r="C180" s="99" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="181" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B181" s="58" t="s">
+        <v>316</v>
+      </c>
+      <c r="C181" s="99" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="182" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B182" s="58" t="s">
+        <v>317</v>
+      </c>
+      <c r="C182" s="99" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="183" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B183" s="58" t="s">
+        <v>318</v>
+      </c>
+      <c r="C183" s="99" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="184" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B184" s="58" t="s">
+        <v>319</v>
+      </c>
+      <c r="C184" s="99" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="185" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B185" s="58" t="s">
+        <v>321</v>
+      </c>
+      <c r="C185" s="99" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="186" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B186" s="58" t="s">
+        <v>323</v>
+      </c>
+      <c r="C186" s="99" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="187" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B187" s="86" t="s">
+        <v>202</v>
+      </c>
+      <c r="C187" s="87"/>
+    </row>
+    <row r="188" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B188" s="58" t="s">
+        <v>325</v>
+      </c>
+      <c r="C188" s="99" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="189" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B189" s="58" t="s">
+        <v>326</v>
+      </c>
+      <c r="C189" s="99" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="190" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B190" s="58" t="s">
+        <v>328</v>
+      </c>
+      <c r="C190" s="99" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="191" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B191" s="58" t="s">
+        <v>329</v>
+      </c>
+      <c r="C191" s="99" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="192" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B192" s="58" t="s">
+        <v>331</v>
+      </c>
+      <c r="C192" s="99" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B193" s="86" t="s">
+        <v>227</v>
+      </c>
+      <c r="C193" s="87"/>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B194" s="58" t="s">
+        <v>333</v>
+      </c>
+      <c r="C194" s="99" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B195" s="86" t="s">
+        <v>330</v>
+      </c>
+      <c r="C195" s="87"/>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B196" s="58" t="s">
+        <v>335</v>
+      </c>
+      <c r="C196" s="99" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B197" s="58" t="s">
+        <v>337</v>
+      </c>
+      <c r="C197" s="49" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B198" s="58" t="s">
+        <v>339</v>
+      </c>
+      <c r="C198" s="99" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B199" s="58" t="s">
+        <v>341</v>
+      </c>
+      <c r="C199" s="99" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B200" s="58" t="s">
+        <v>343</v>
+      </c>
+      <c r="C200" s="99" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B201" s="58" t="s">
+        <v>345</v>
+      </c>
+      <c r="C201" s="99" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B202" s="58" t="s">
+        <v>347</v>
+      </c>
+      <c r="C202" s="99" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B203" s="58" t="s">
+        <v>350</v>
+      </c>
+      <c r="C203" s="99" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B204" s="86" t="s">
+        <v>173</v>
+      </c>
+      <c r="C204" s="87"/>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B205" s="58" t="s">
+        <v>351</v>
+      </c>
+      <c r="C205" s="98" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>352</v>
+      </c>
+      <c r="B206" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="C206" t="s">
+        <v>417</v>
+      </c>
+      <c r="D206" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B207" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="C207" t="s">
+        <v>418</v>
+      </c>
+      <c r="D207" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B208" s="100" t="s">
+        <v>202</v>
+      </c>
+      <c r="C208" s="101"/>
+    </row>
+    <row r="209" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B209" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="C209" s="99" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="210" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B210" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="C210" s="99" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="211" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B211" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="C211" s="99" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="212" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B212" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="C212" s="99" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="213" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B213" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="C213" s="99" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="214" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B214" s="102" t="s">
+        <v>361</v>
+      </c>
+      <c r="C214" s="103"/>
+    </row>
+    <row r="215" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B215" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="C215" s="99" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="216" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B216" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="C216" s="99" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="217" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B217" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="C217" s="99" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="218" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B218" s="89" t="s">
+        <v>330</v>
+      </c>
+      <c r="C218" s="85"/>
+    </row>
+    <row r="219" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B219" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="C219" s="99" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="220" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B220" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="C220" s="49" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="221" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B221" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="C221" s="99" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="222" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B222" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="C222" s="99" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="223" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B223" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="C223" s="99" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="224" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B224" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="C224" s="99" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="225" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B225" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="C225" s="99" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="226" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B226" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="C226" s="99" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="227" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B227" s="89" t="s">
+        <v>378</v>
+      </c>
+      <c r="C227" s="85"/>
+    </row>
+    <row r="228" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B228" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="C228" s="99" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="229" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B229" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="C229" s="99" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="230" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B230" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="C230" s="104" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="231" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B231" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="C231" s="105" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="232" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B232" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="C232" s="49" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="233" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B233" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="C233" s="49" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="234" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B234" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="C234" s="49" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="235" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B235" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="C235" s="49" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="236" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B236" s="89" t="s">
+        <v>395</v>
+      </c>
+      <c r="C236" s="85"/>
+    </row>
+    <row r="237" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B237" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="C237" s="99" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="238" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B238" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="C238" s="99" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="239" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B239" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="C239" s="99" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="240" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B240" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="C240" s="99" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B241" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="C241" s="99" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B242" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="C242" s="99" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B243" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="C243" s="99" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B244" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="C244" s="99" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B245" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="C245" s="99" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B246" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="C246" s="29" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B247" s="89" t="s">
+        <v>173</v>
+      </c>
+      <c r="C247" s="85"/>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B248" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="C248" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="D248" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>421</v>
+      </c>
+      <c r="B249" s="93" t="s">
+        <v>422</v>
+      </c>
+      <c r="C249" t="s">
+        <v>215</v>
+      </c>
+      <c r="D249" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B250" s="93" t="s">
+        <v>426</v>
+      </c>
+      <c r="C250" t="s">
+        <v>423</v>
+      </c>
+      <c r="D250" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B251" s="93" t="s">
+        <v>427</v>
+      </c>
+      <c r="C251" t="s">
+        <v>424</v>
+      </c>
+      <c r="D251" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B252" s="93" t="s">
+        <v>428</v>
+      </c>
+      <c r="C252" t="s">
+        <v>425</v>
+      </c>
+      <c r="D252" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B253" s="93" t="s">
+        <v>429</v>
+      </c>
+      <c r="C253" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>431</v>
+      </c>
+      <c r="B254" s="93" t="s">
+        <v>432</v>
+      </c>
+      <c r="C254" t="s">
+        <v>215</v>
+      </c>
+      <c r="D254" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B255" s="93" t="s">
+        <v>433</v>
+      </c>
+      <c r="C255" t="s">
+        <v>423</v>
+      </c>
+      <c r="D255" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B256" s="93" t="s">
+        <v>434</v>
+      </c>
+      <c r="C256" t="s">
+        <v>424</v>
+      </c>
+      <c r="D256" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B257" s="93" t="s">
+        <v>435</v>
+      </c>
+      <c r="C257" t="s">
+        <v>425</v>
+      </c>
+      <c r="D257" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B258" s="93" t="s">
+        <v>436</v>
+      </c>
+      <c r="C258" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>438</v>
+      </c>
+      <c r="B259" s="93" t="s">
+        <v>439</v>
+      </c>
+      <c r="C259" t="s">
+        <v>215</v>
+      </c>
+      <c r="D259" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B260" s="93" t="s">
+        <v>440</v>
+      </c>
+      <c r="C260" t="s">
+        <v>423</v>
+      </c>
+      <c r="D260" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B261" s="93" t="s">
+        <v>441</v>
+      </c>
+      <c r="C261" t="s">
+        <v>424</v>
+      </c>
+      <c r="D261" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B262" s="93" t="s">
+        <v>442</v>
+      </c>
+      <c r="C262" t="s">
+        <v>425</v>
+      </c>
+      <c r="D262" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B263" s="93" t="s">
+        <v>443</v>
+      </c>
+      <c r="C263" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>445</v>
+      </c>
+      <c r="B264" s="93" t="s">
+        <v>446</v>
+      </c>
+      <c r="C264" t="s">
+        <v>447</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="78">
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B113:I113"/>
-    <mergeCell ref="B74:I74"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="G35:H35"/>
+  <mergeCells count="66">
+    <mergeCell ref="G117:H117"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="G105:H105"/>
+    <mergeCell ref="G109:H109"/>
+    <mergeCell ref="G110:H110"/>
+    <mergeCell ref="G112:H112"/>
+    <mergeCell ref="G113:H113"/>
+    <mergeCell ref="G114:H114"/>
+    <mergeCell ref="G115:H115"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G49:H49"/>
     <mergeCell ref="G38:H38"/>
     <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G52:H52"/>
     <mergeCell ref="G40:H40"/>
     <mergeCell ref="G41:H41"/>
     <mergeCell ref="G42:H42"/>
@@ -2860,66 +4946,6 @@
     <mergeCell ref="G44:H44"/>
     <mergeCell ref="G45:H45"/>
     <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="B63:I63"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="B61:I61"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="B65:I65"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="B68:I68"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="B80:I80"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="B92:I92"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="B95:I95"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="B97:I97"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="G114:H114"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="G102:H102"/>
-    <mergeCell ref="B105:I105"/>
-    <mergeCell ref="G106:H106"/>
-    <mergeCell ref="G107:H107"/>
-    <mergeCell ref="B108:I108"/>
-    <mergeCell ref="G109:H109"/>
-    <mergeCell ref="G110:H110"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="G112:H112"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Lamia/toolprepro/base2_chantier/sousfiches/Orange.xlsx
+++ b/Lamia/toolprepro/base2_chantier/sousfiches/Orange.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B61302-7F9A-4D68-B823-8FA25D351349}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{58B61302-7F9A-4D68-B823-8FA25D351349}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{9215AF37-1DAE-4B45-BBD2-5F2BCB930A6A}"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5280" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="498">
   <si>
     <t>1.1.1</t>
   </si>
@@ -1380,6 +1380,156 @@
   </si>
   <si>
     <t>Demande de test réflectométrie</t>
+  </si>
+  <si>
+    <t>4.1 FIBRAGE - Plan de baie SRO</t>
+  </si>
+  <si>
+    <t>TIROIRS DE DISTRIBUTION</t>
+  </si>
+  <si>
+    <t>4.1.1</t>
+  </si>
+  <si>
+    <t>EMPLACEMENT DU TIROIR VS PLAN DE BAIE SRO &amp; SYNO</t>
+  </si>
+  <si>
+    <t>4.1.2</t>
+  </si>
+  <si>
+    <t>ETIQUETAGE DES TIROIRS</t>
+  </si>
+  <si>
+    <t>4.1.3</t>
+  </si>
+  <si>
+    <t>COHERENCE TIROIRS VS SYNO</t>
+  </si>
+  <si>
+    <t>TIROIRS DE TRANSPORT</t>
+  </si>
+  <si>
+    <t>4.1.4</t>
+  </si>
+  <si>
+    <t>4.1.5</t>
+  </si>
+  <si>
+    <t>4.1.6</t>
+  </si>
+  <si>
+    <t>TIROIR DE STOCKAGE</t>
+  </si>
+  <si>
+    <t>4.1.7</t>
+  </si>
+  <si>
+    <t>4.1.8</t>
+  </si>
+  <si>
+    <t>4.1.9</t>
+  </si>
+  <si>
+    <t>TIROIR FTTE</t>
+  </si>
+  <si>
+    <t>4.1.10</t>
+  </si>
+  <si>
+    <t>PRESENCE &amp; EMPLACEMENT TIROIR</t>
+  </si>
+  <si>
+    <t>COHERENCE TIROIR VS SYNO</t>
+  </si>
+  <si>
+    <t>ETIQUETAGE DU TIROIR</t>
+  </si>
+  <si>
+    <t>COHERENCE TIROIR VS SYNO GENERAL TRANSPORT</t>
+  </si>
+  <si>
+    <t>4.2 FIBRAGE - Plan de baie NRO</t>
+  </si>
+  <si>
+    <t>4.2.1</t>
+  </si>
+  <si>
+    <t>Référence du NRO</t>
+  </si>
+  <si>
+    <t>4.2.2</t>
+  </si>
+  <si>
+    <t>COHERENCE FERME 1 VS PLAN DE BAIE NRO &amp; SYNO</t>
+  </si>
+  <si>
+    <t>4.2.3</t>
+  </si>
+  <si>
+    <t>COHERENCE FERME 3 VS PLAN DE BAIE NRO &amp; SYNO</t>
+  </si>
+  <si>
+    <t>4.2.4</t>
+  </si>
+  <si>
+    <t>COHERENCE FERME 5 VS PLAN DE BAIE NRO &amp; SYNO</t>
+  </si>
+  <si>
+    <t>4.3 FIBRAGE - BPE</t>
+  </si>
+  <si>
+    <t>4.3.1</t>
+  </si>
+  <si>
+    <t>Référence de la BPE</t>
+  </si>
+  <si>
+    <t>4.3.2</t>
+  </si>
+  <si>
+    <t>COHERENCE COORDONNEES GPS VS SYNO</t>
+  </si>
+  <si>
+    <t>4.3.3</t>
+  </si>
+  <si>
+    <t>COHERENCE ADRESSE VS SYNO</t>
+  </si>
+  <si>
+    <t>4.3.4</t>
+  </si>
+  <si>
+    <t>COHERENCE TYPE DE BOITE VS SYNO</t>
+  </si>
+  <si>
+    <t>4.3.5</t>
+  </si>
+  <si>
+    <t>COHERENCE FIBRES EPISSUREES VS PLAN DE SOUDURE</t>
+  </si>
+  <si>
+    <t>4.3.6</t>
+  </si>
+  <si>
+    <t>COHERENCE FIBRES EN ATTENTE RACCO CLIENT  VS PLAN DE SOUDURE</t>
+  </si>
+  <si>
+    <t>4.3.7</t>
+  </si>
+  <si>
+    <t>COHERENCE FIBRES EN PASSAGE  VS PLAN DE SOUDURE</t>
+  </si>
+  <si>
+    <t>4.3.8</t>
+  </si>
+  <si>
+    <t>COHERENCE TUBES FOND DE BOITE VS PLAN DE SOUDURE</t>
+  </si>
+  <si>
+    <t>4.3.9</t>
+  </si>
+  <si>
+    <t>COHERENCE RANGEMENT DANS LES CASSETTES  VS PLAN DE SOUDURE</t>
   </si>
 </sst>
 </file>
@@ -1828,69 +1978,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1937,6 +2024,69 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2218,16 +2368,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I264"/>
+  <dimension ref="A1:I295"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
-      <selection activeCell="C270" sqref="C270"/>
+    <sheetView tabSelected="1" topLeftCell="A261" workbookViewId="0">
+      <selection activeCell="H275" sqref="H275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="82.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2303,7 +2453,7 @@
       <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="81" t="s">
+      <c r="C8" s="60" t="s">
         <v>218</v>
       </c>
       <c r="D8" t="s">
@@ -2311,10 +2461,10 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="60"/>
+      <c r="C9" s="99"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
@@ -2429,10 +2579,10 @@
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="61" t="s">
+      <c r="B24" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="61"/>
+      <c r="C24" s="100"/>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
@@ -2507,10 +2657,10 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="61" t="s">
+      <c r="B34" s="100" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="61"/>
+      <c r="C34" s="100"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
@@ -2524,7 +2674,7 @@
       <c r="A36" t="s">
         <v>63</v>
       </c>
-      <c r="B36" s="82" t="s">
+      <c r="B36" s="61" t="s">
         <v>64</v>
       </c>
       <c r="C36" t="s">
@@ -2535,12 +2685,12 @@
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
-      <c r="G36" s="62"/>
-      <c r="H36" s="62"/>
+      <c r="G36" s="101"/>
+      <c r="H36" s="101"/>
       <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="82" t="s">
+      <c r="B37" s="61" t="s">
         <v>66</v>
       </c>
       <c r="C37" s="5" t="s">
@@ -2554,7 +2704,7 @@
       <c r="I37" s="59"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="82" t="s">
+      <c r="B38" s="61" t="s">
         <v>68</v>
       </c>
       <c r="C38" s="5" t="s">
@@ -2563,12 +2713,12 @@
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
-      <c r="G38" s="62"/>
-      <c r="H38" s="62"/>
+      <c r="G38" s="101"/>
+      <c r="H38" s="101"/>
       <c r="I38" s="1"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="82" t="s">
+      <c r="B39" s="61" t="s">
         <v>70</v>
       </c>
       <c r="C39" s="5" t="s">
@@ -2577,12 +2727,12 @@
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
-      <c r="G39" s="63"/>
-      <c r="H39" s="64"/>
+      <c r="G39" s="102"/>
+      <c r="H39" s="103"/>
       <c r="I39" s="1"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="82" t="s">
+      <c r="B40" s="61" t="s">
         <v>72</v>
       </c>
       <c r="C40" s="5" t="s">
@@ -2591,12 +2741,12 @@
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
-      <c r="G40" s="62"/>
-      <c r="H40" s="62"/>
+      <c r="G40" s="101"/>
+      <c r="H40" s="101"/>
       <c r="I40" s="1"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="82" t="s">
+      <c r="B41" s="61" t="s">
         <v>74</v>
       </c>
       <c r="C41" s="5" t="s">
@@ -2605,12 +2755,12 @@
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
-      <c r="G41" s="62"/>
-      <c r="H41" s="62"/>
+      <c r="G41" s="101"/>
+      <c r="H41" s="101"/>
       <c r="I41" s="1"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="82" t="s">
+      <c r="B42" s="61" t="s">
         <v>76</v>
       </c>
       <c r="C42" s="5" t="s">
@@ -2619,12 +2769,12 @@
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
-      <c r="G42" s="62"/>
-      <c r="H42" s="62"/>
+      <c r="G42" s="101"/>
+      <c r="H42" s="101"/>
       <c r="I42" s="1"/>
     </row>
     <row r="43" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B43" s="82" t="s">
+      <c r="B43" s="61" t="s">
         <v>78</v>
       </c>
       <c r="C43" s="5" t="s">
@@ -2633,12 +2783,12 @@
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
-      <c r="G43" s="62"/>
-      <c r="H43" s="62"/>
+      <c r="G43" s="101"/>
+      <c r="H43" s="101"/>
       <c r="I43" s="1"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="82" t="s">
+      <c r="B44" s="61" t="s">
         <v>80</v>
       </c>
       <c r="C44" s="5" t="s">
@@ -2647,12 +2797,12 @@
       <c r="D44" s="11"/>
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
-      <c r="G44" s="67"/>
-      <c r="H44" s="68"/>
+      <c r="G44" s="95"/>
+      <c r="H44" s="96"/>
       <c r="I44" s="12"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="82" t="s">
+      <c r="B45" s="61" t="s">
         <v>82</v>
       </c>
       <c r="C45" s="5" t="s">
@@ -2661,12 +2811,12 @@
       <c r="D45" s="11"/>
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
-      <c r="G45" s="67"/>
-      <c r="H45" s="68"/>
+      <c r="G45" s="95"/>
+      <c r="H45" s="96"/>
       <c r="I45" s="12"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="82" t="s">
+      <c r="B46" s="61" t="s">
         <v>84</v>
       </c>
       <c r="C46" s="5" t="s">
@@ -2675,12 +2825,12 @@
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
-      <c r="G46" s="67"/>
-      <c r="H46" s="68"/>
+      <c r="G46" s="95"/>
+      <c r="H46" s="96"/>
       <c r="I46" s="12"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="82" t="s">
+      <c r="B47" s="61" t="s">
         <v>220</v>
       </c>
       <c r="C47" s="5" t="s">
@@ -2689,15 +2839,15 @@
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
-      <c r="G47" s="67"/>
-      <c r="H47" s="68"/>
+      <c r="G47" s="95"/>
+      <c r="H47" s="96"/>
       <c r="I47" s="12"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>86</v>
       </c>
-      <c r="B48" s="82" t="s">
+      <c r="B48" s="61" t="s">
         <v>87</v>
       </c>
       <c r="C48" t="s">
@@ -2706,12 +2856,12 @@
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
-      <c r="G48" s="69"/>
-      <c r="H48" s="70"/>
+      <c r="G48" s="85"/>
+      <c r="H48" s="86"/>
       <c r="I48" s="14"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="82" t="s">
+      <c r="B49" s="61" t="s">
         <v>89</v>
       </c>
       <c r="C49" s="7" t="s">
@@ -2725,7 +2875,7 @@
       <c r="I49" s="57"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B50" s="82" t="s">
+      <c r="B50" s="61" t="s">
         <v>91</v>
       </c>
       <c r="C50" s="15" t="s">
@@ -2734,12 +2884,12 @@
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
-      <c r="G50" s="69"/>
-      <c r="H50" s="70"/>
+      <c r="G50" s="85"/>
+      <c r="H50" s="86"/>
       <c r="I50" s="14"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B51" s="82" t="s">
+      <c r="B51" s="61" t="s">
         <v>93</v>
       </c>
       <c r="C51" s="16" t="s">
@@ -2748,12 +2898,12 @@
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
-      <c r="G51" s="71"/>
-      <c r="H51" s="72"/>
+      <c r="G51" s="89"/>
+      <c r="H51" s="90"/>
       <c r="I51" s="14"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="82" t="s">
+      <c r="B52" s="61" t="s">
         <v>95</v>
       </c>
       <c r="C52" s="16" t="s">
@@ -2762,12 +2912,12 @@
       <c r="D52" s="17"/>
       <c r="E52" s="17"/>
       <c r="F52" s="17"/>
-      <c r="G52" s="65"/>
-      <c r="H52" s="66"/>
+      <c r="G52" s="104"/>
+      <c r="H52" s="105"/>
       <c r="I52" s="18"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="82" t="s">
+      <c r="B53" s="61" t="s">
         <v>97</v>
       </c>
       <c r="C53" s="7" t="s">
@@ -2776,12 +2926,12 @@
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
-      <c r="G53" s="71"/>
-      <c r="H53" s="72"/>
+      <c r="G53" s="89"/>
+      <c r="H53" s="90"/>
       <c r="I53" s="10"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="82" t="s">
+      <c r="B54" s="61" t="s">
         <v>99</v>
       </c>
       <c r="C54" s="7" t="s">
@@ -2790,12 +2940,12 @@
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
-      <c r="G54" s="71"/>
-      <c r="H54" s="72"/>
+      <c r="G54" s="89"/>
+      <c r="H54" s="90"/>
       <c r="I54" s="10"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B55" s="82" t="s">
+      <c r="B55" s="61" t="s">
         <v>101</v>
       </c>
       <c r="C55" s="7" t="s">
@@ -2804,12 +2954,12 @@
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
-      <c r="G55" s="71"/>
-      <c r="H55" s="72"/>
+      <c r="G55" s="89"/>
+      <c r="H55" s="90"/>
       <c r="I55" s="10"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B56" s="82" t="s">
+      <c r="B56" s="61" t="s">
         <v>103</v>
       </c>
       <c r="C56" s="7" t="s">
@@ -2818,12 +2968,12 @@
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
-      <c r="G56" s="69"/>
-      <c r="H56" s="70"/>
+      <c r="G56" s="85"/>
+      <c r="H56" s="86"/>
       <c r="I56" s="14"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B57" s="82" t="s">
+      <c r="B57" s="61" t="s">
         <v>105</v>
       </c>
       <c r="C57" s="7" t="s">
@@ -2832,12 +2982,12 @@
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
-      <c r="G57" s="71"/>
-      <c r="H57" s="72"/>
+      <c r="G57" s="89"/>
+      <c r="H57" s="90"/>
       <c r="I57" s="10"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="82" t="s">
+      <c r="B58" s="61" t="s">
         <v>107</v>
       </c>
       <c r="C58" s="7" t="s">
@@ -2846,12 +2996,12 @@
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
-      <c r="G58" s="69"/>
-      <c r="H58" s="70"/>
+      <c r="G58" s="85"/>
+      <c r="H58" s="86"/>
       <c r="I58" s="14"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="82" t="s">
+      <c r="B59" s="61" t="s">
         <v>109</v>
       </c>
       <c r="C59" s="7" t="s">
@@ -2860,12 +3010,12 @@
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
-      <c r="G59" s="69"/>
-      <c r="H59" s="70"/>
+      <c r="G59" s="85"/>
+      <c r="H59" s="86"/>
       <c r="I59" s="14"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="82" t="s">
+      <c r="B60" s="61" t="s">
         <v>111</v>
       </c>
       <c r="C60" s="7" t="s">
@@ -2874,12 +3024,12 @@
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
-      <c r="G60" s="69"/>
-      <c r="H60" s="70"/>
+      <c r="G60" s="85"/>
+      <c r="H60" s="86"/>
       <c r="I60" s="14"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B61" s="82" t="s">
+      <c r="B61" s="61" t="s">
         <v>113</v>
       </c>
       <c r="C61" s="15" t="s">
@@ -2888,12 +3038,12 @@
       <c r="D61" s="15"/>
       <c r="E61" s="15"/>
       <c r="F61" s="15"/>
-      <c r="G61" s="73"/>
-      <c r="H61" s="74"/>
+      <c r="G61" s="97"/>
+      <c r="H61" s="98"/>
       <c r="I61" s="19"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="82" t="s">
+      <c r="B62" s="61" t="s">
         <v>115</v>
       </c>
       <c r="C62" s="20" t="s">
@@ -2907,7 +3057,7 @@
       <c r="I62" s="21"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B63" s="82" t="s">
+      <c r="B63" s="61" t="s">
         <v>118</v>
       </c>
       <c r="C63" s="20" t="s">
@@ -2921,16 +3071,16 @@
       <c r="I63" s="21"/>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B64" s="85" t="s">
+      <c r="B64" s="64" t="s">
         <v>117</v>
       </c>
-      <c r="C64" s="85"/>
-      <c r="D64" s="85"/>
-      <c r="E64" s="85"/>
-      <c r="F64" s="85"/>
-      <c r="G64" s="85"/>
-      <c r="H64" s="85"/>
-      <c r="I64" s="85"/>
+      <c r="C64" s="64"/>
+      <c r="D64" s="64"/>
+      <c r="E64" s="64"/>
+      <c r="F64" s="64"/>
+      <c r="G64" s="64"/>
+      <c r="H64" s="64"/>
+      <c r="I64" s="64"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B65" s="13" t="s">
@@ -2942,21 +3092,21 @@
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
-      <c r="G65" s="69"/>
-      <c r="H65" s="70"/>
+      <c r="G65" s="85"/>
+      <c r="H65" s="86"/>
       <c r="I65" s="14"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B66" s="85" t="s">
+      <c r="B66" s="64" t="s">
         <v>120</v>
       </c>
-      <c r="C66" s="85"/>
-      <c r="D66" s="85"/>
-      <c r="E66" s="85"/>
-      <c r="F66" s="85"/>
-      <c r="G66" s="85"/>
-      <c r="H66" s="85"/>
-      <c r="I66" s="85"/>
+      <c r="C66" s="64"/>
+      <c r="D66" s="64"/>
+      <c r="E66" s="64"/>
+      <c r="F66" s="64"/>
+      <c r="G66" s="64"/>
+      <c r="H66" s="64"/>
+      <c r="I66" s="64"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B67" s="13" t="s">
@@ -2968,24 +3118,24 @@
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
       <c r="F67" s="7"/>
-      <c r="G67" s="69"/>
-      <c r="H67" s="70"/>
+      <c r="G67" s="85"/>
+      <c r="H67" s="86"/>
       <c r="I67" s="14"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>123</v>
       </c>
-      <c r="B68" s="86" t="s">
+      <c r="B68" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="C68" s="87"/>
-      <c r="D68" s="87"/>
-      <c r="E68" s="87"/>
-      <c r="F68" s="87"/>
-      <c r="G68" s="87"/>
-      <c r="H68" s="87"/>
-      <c r="I68" s="88"/>
+      <c r="C68" s="66"/>
+      <c r="D68" s="66"/>
+      <c r="E68" s="66"/>
+      <c r="F68" s="66"/>
+      <c r="G68" s="66"/>
+      <c r="H68" s="66"/>
+      <c r="I68" s="67"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B69" s="22" t="s">
@@ -2997,8 +3147,8 @@
       <c r="D69" s="24"/>
       <c r="E69" s="25"/>
       <c r="F69" s="26"/>
-      <c r="G69" s="76"/>
-      <c r="H69" s="77"/>
+      <c r="G69" s="93"/>
+      <c r="H69" s="94"/>
       <c r="I69" s="22"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -3011,21 +3161,21 @@
       <c r="D70" s="28"/>
       <c r="E70" s="29"/>
       <c r="F70" s="16"/>
-      <c r="G70" s="75"/>
-      <c r="H70" s="75"/>
+      <c r="G70" s="91"/>
+      <c r="H70" s="91"/>
       <c r="I70" s="30"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B71" s="86" t="s">
+      <c r="B71" s="65" t="s">
         <v>129</v>
       </c>
-      <c r="C71" s="87"/>
-      <c r="D71" s="87"/>
-      <c r="E71" s="87"/>
-      <c r="F71" s="87"/>
-      <c r="G71" s="87"/>
-      <c r="H71" s="87"/>
-      <c r="I71" s="88"/>
+      <c r="C71" s="66"/>
+      <c r="D71" s="66"/>
+      <c r="E71" s="66"/>
+      <c r="F71" s="66"/>
+      <c r="G71" s="66"/>
+      <c r="H71" s="66"/>
+      <c r="I71" s="67"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B72" s="22" t="s">
@@ -3037,8 +3187,8 @@
       <c r="D72" s="28"/>
       <c r="E72" s="31"/>
       <c r="F72" s="32"/>
-      <c r="G72" s="75"/>
-      <c r="H72" s="75"/>
+      <c r="G72" s="91"/>
+      <c r="H72" s="91"/>
       <c r="I72" s="30"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -3051,8 +3201,8 @@
       <c r="D73" s="28"/>
       <c r="E73" s="33"/>
       <c r="F73" s="34"/>
-      <c r="G73" s="75"/>
-      <c r="H73" s="75"/>
+      <c r="G73" s="91"/>
+      <c r="H73" s="91"/>
       <c r="I73" s="30"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -3065,8 +3215,8 @@
       <c r="D74" s="28"/>
       <c r="E74" s="28"/>
       <c r="F74" s="35"/>
-      <c r="G74" s="75"/>
-      <c r="H74" s="75"/>
+      <c r="G74" s="91"/>
+      <c r="H74" s="91"/>
       <c r="I74" s="30"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -3079,8 +3229,8 @@
       <c r="D75" s="28"/>
       <c r="E75" s="28"/>
       <c r="F75" s="37"/>
-      <c r="G75" s="75"/>
-      <c r="H75" s="75"/>
+      <c r="G75" s="91"/>
+      <c r="H75" s="91"/>
       <c r="I75" s="30"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -3093,21 +3243,21 @@
       <c r="D76" s="38"/>
       <c r="E76" s="16"/>
       <c r="F76" s="16"/>
-      <c r="G76" s="75"/>
-      <c r="H76" s="75"/>
+      <c r="G76" s="91"/>
+      <c r="H76" s="91"/>
       <c r="I76" s="30"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B77" s="86" t="s">
+      <c r="B77" s="65" t="s">
         <v>140</v>
       </c>
-      <c r="C77" s="87"/>
-      <c r="D77" s="87"/>
-      <c r="E77" s="87"/>
-      <c r="F77" s="87"/>
-      <c r="G77" s="87"/>
-      <c r="H77" s="87"/>
-      <c r="I77" s="87"/>
+      <c r="C77" s="66"/>
+      <c r="D77" s="66"/>
+      <c r="E77" s="66"/>
+      <c r="F77" s="66"/>
+      <c r="G77" s="66"/>
+      <c r="H77" s="66"/>
+      <c r="I77" s="66"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B78" s="22" t="s">
@@ -3119,8 +3269,8 @@
       <c r="D78" s="28"/>
       <c r="E78" s="29"/>
       <c r="F78" s="16"/>
-      <c r="G78" s="75"/>
-      <c r="H78" s="75"/>
+      <c r="G78" s="91"/>
+      <c r="H78" s="91"/>
       <c r="I78" s="30"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -3133,8 +3283,8 @@
       <c r="D79" s="28"/>
       <c r="E79" s="41"/>
       <c r="F79" s="41"/>
-      <c r="G79" s="75"/>
-      <c r="H79" s="75"/>
+      <c r="G79" s="91"/>
+      <c r="H79" s="91"/>
       <c r="I79" s="30"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -3147,8 +3297,8 @@
       <c r="D80" s="43"/>
       <c r="E80" s="16"/>
       <c r="F80" s="16"/>
-      <c r="G80" s="75"/>
-      <c r="H80" s="75"/>
+      <c r="G80" s="91"/>
+      <c r="H80" s="91"/>
       <c r="I80" s="30"/>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
@@ -3160,8 +3310,8 @@
       </c>
       <c r="E81" s="16"/>
       <c r="F81" s="16"/>
-      <c r="G81" s="75"/>
-      <c r="H81" s="75"/>
+      <c r="G81" s="91"/>
+      <c r="H81" s="91"/>
       <c r="I81" s="30"/>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
@@ -3174,21 +3324,21 @@
       <c r="D82" s="45"/>
       <c r="E82" s="46"/>
       <c r="F82" s="46"/>
-      <c r="G82" s="78"/>
-      <c r="H82" s="78"/>
+      <c r="G82" s="92"/>
+      <c r="H82" s="92"/>
       <c r="I82" s="47"/>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B83" s="89" t="s">
+      <c r="B83" s="68" t="s">
         <v>150</v>
       </c>
-      <c r="C83" s="85"/>
-      <c r="D83" s="85"/>
-      <c r="E83" s="85"/>
-      <c r="F83" s="85"/>
-      <c r="G83" s="85"/>
-      <c r="H83" s="85"/>
-      <c r="I83" s="90"/>
+      <c r="C83" s="64"/>
+      <c r="D83" s="64"/>
+      <c r="E83" s="64"/>
+      <c r="F83" s="64"/>
+      <c r="G83" s="64"/>
+      <c r="H83" s="64"/>
+      <c r="I83" s="69"/>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" s="22" t="s">
@@ -3200,8 +3350,8 @@
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
       <c r="F84" s="7"/>
-      <c r="G84" s="71"/>
-      <c r="H84" s="72"/>
+      <c r="G84" s="89"/>
+      <c r="H84" s="90"/>
       <c r="I84" s="48"/>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.25">
@@ -3214,8 +3364,8 @@
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
       <c r="F85" s="7"/>
-      <c r="G85" s="71"/>
-      <c r="H85" s="72"/>
+      <c r="G85" s="89"/>
+      <c r="H85" s="90"/>
       <c r="I85" s="48"/>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
@@ -3228,8 +3378,8 @@
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
       <c r="F86" s="7"/>
-      <c r="G86" s="71"/>
-      <c r="H86" s="72"/>
+      <c r="G86" s="89"/>
+      <c r="H86" s="90"/>
       <c r="I86" s="48"/>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.25">
@@ -3242,8 +3392,8 @@
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
       <c r="F87" s="7"/>
-      <c r="G87" s="71"/>
-      <c r="H87" s="72"/>
+      <c r="G87" s="89"/>
+      <c r="H87" s="90"/>
       <c r="I87" s="48"/>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.25">
@@ -3256,8 +3406,8 @@
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
       <c r="F88" s="7"/>
-      <c r="G88" s="71"/>
-      <c r="H88" s="72"/>
+      <c r="G88" s="89"/>
+      <c r="H88" s="90"/>
       <c r="I88" s="48"/>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.25">
@@ -3270,8 +3420,8 @@
       <c r="D89" s="17"/>
       <c r="E89" s="17"/>
       <c r="F89" s="17"/>
-      <c r="G89" s="71"/>
-      <c r="H89" s="72"/>
+      <c r="G89" s="89"/>
+      <c r="H89" s="90"/>
       <c r="I89" s="48"/>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.25">
@@ -3284,8 +3434,8 @@
       <c r="D90" s="17"/>
       <c r="E90" s="17"/>
       <c r="F90" s="17"/>
-      <c r="G90" s="71"/>
-      <c r="H90" s="72"/>
+      <c r="G90" s="89"/>
+      <c r="H90" s="90"/>
       <c r="I90" s="48"/>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
@@ -3298,8 +3448,8 @@
       <c r="D91" s="17"/>
       <c r="E91" s="17"/>
       <c r="F91" s="17"/>
-      <c r="G91" s="71"/>
-      <c r="H91" s="72"/>
+      <c r="G91" s="89"/>
+      <c r="H91" s="90"/>
       <c r="I91" s="48"/>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
@@ -3312,8 +3462,8 @@
       <c r="D92" s="17"/>
       <c r="E92" s="17"/>
       <c r="F92" s="17"/>
-      <c r="G92" s="71"/>
-      <c r="H92" s="72"/>
+      <c r="G92" s="89"/>
+      <c r="H92" s="90"/>
       <c r="I92" s="48"/>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.25">
@@ -3326,8 +3476,8 @@
       <c r="D93" s="17"/>
       <c r="E93" s="17"/>
       <c r="F93" s="17"/>
-      <c r="G93" s="71"/>
-      <c r="H93" s="72"/>
+      <c r="G93" s="89"/>
+      <c r="H93" s="90"/>
       <c r="I93" s="48"/>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.25">
@@ -3340,21 +3490,21 @@
       <c r="D94" s="17"/>
       <c r="E94" s="17"/>
       <c r="F94" s="17"/>
-      <c r="G94" s="71"/>
-      <c r="H94" s="72"/>
+      <c r="G94" s="89"/>
+      <c r="H94" s="90"/>
       <c r="I94" s="48"/>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B95" s="86" t="s">
+      <c r="B95" s="65" t="s">
         <v>173</v>
       </c>
-      <c r="C95" s="87"/>
-      <c r="D95" s="87"/>
-      <c r="E95" s="87"/>
-      <c r="F95" s="87"/>
-      <c r="G95" s="87"/>
-      <c r="H95" s="87"/>
-      <c r="I95" s="87"/>
+      <c r="C95" s="66"/>
+      <c r="D95" s="66"/>
+      <c r="E95" s="66"/>
+      <c r="F95" s="66"/>
+      <c r="G95" s="66"/>
+      <c r="H95" s="66"/>
+      <c r="I95" s="66"/>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B96" s="22" t="s">
@@ -3366,8 +3516,8 @@
       <c r="D96" s="16"/>
       <c r="E96" s="16"/>
       <c r="F96" s="16"/>
-      <c r="G96" s="75"/>
-      <c r="H96" s="75"/>
+      <c r="G96" s="91"/>
+      <c r="H96" s="91"/>
       <c r="I96" s="30"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -3380,24 +3530,24 @@
       <c r="D97" s="16"/>
       <c r="E97" s="16"/>
       <c r="F97" s="16"/>
-      <c r="G97" s="75"/>
-      <c r="H97" s="75"/>
+      <c r="G97" s="91"/>
+      <c r="H97" s="91"/>
       <c r="I97" s="30"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>178</v>
       </c>
-      <c r="B98" s="85" t="s">
+      <c r="B98" s="64" t="s">
         <v>179</v>
       </c>
-      <c r="C98" s="85"/>
-      <c r="D98" s="85"/>
-      <c r="E98" s="85"/>
-      <c r="F98" s="85"/>
-      <c r="G98" s="85"/>
-      <c r="H98" s="85"/>
-      <c r="I98" s="85"/>
+      <c r="C98" s="64"/>
+      <c r="D98" s="64"/>
+      <c r="E98" s="64"/>
+      <c r="F98" s="64"/>
+      <c r="G98" s="64"/>
+      <c r="H98" s="64"/>
+      <c r="I98" s="64"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B99" s="13" t="s">
@@ -3409,21 +3559,21 @@
       <c r="D99" s="7"/>
       <c r="E99" s="7"/>
       <c r="F99" s="7"/>
-      <c r="G99" s="69"/>
-      <c r="H99" s="70"/>
+      <c r="G99" s="85"/>
+      <c r="H99" s="86"/>
       <c r="I99" s="14"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B100" s="85" t="s">
+      <c r="B100" s="64" t="s">
         <v>182</v>
       </c>
-      <c r="C100" s="85"/>
-      <c r="D100" s="85"/>
-      <c r="E100" s="85"/>
-      <c r="F100" s="85"/>
-      <c r="G100" s="85"/>
-      <c r="H100" s="85"/>
-      <c r="I100" s="85"/>
+      <c r="C100" s="64"/>
+      <c r="D100" s="64"/>
+      <c r="E100" s="64"/>
+      <c r="F100" s="64"/>
+      <c r="G100" s="64"/>
+      <c r="H100" s="64"/>
+      <c r="I100" s="64"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B101" s="13" t="s">
@@ -3435,8 +3585,8 @@
       <c r="D101" s="7"/>
       <c r="E101" s="7"/>
       <c r="F101" s="7"/>
-      <c r="G101" s="71"/>
-      <c r="H101" s="72"/>
+      <c r="G101" s="89"/>
+      <c r="H101" s="90"/>
       <c r="I101" s="10"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -3449,8 +3599,8 @@
       <c r="D102" s="7"/>
       <c r="E102" s="7"/>
       <c r="F102" s="7"/>
-      <c r="G102" s="69"/>
-      <c r="H102" s="70"/>
+      <c r="G102" s="85"/>
+      <c r="H102" s="86"/>
       <c r="I102" s="14"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -3463,8 +3613,8 @@
       <c r="D103" s="7"/>
       <c r="E103" s="7"/>
       <c r="F103" s="7"/>
-      <c r="G103" s="69"/>
-      <c r="H103" s="70"/>
+      <c r="G103" s="85"/>
+      <c r="H103" s="86"/>
       <c r="I103" s="14"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
@@ -3491,8 +3641,8 @@
       <c r="D105" s="53"/>
       <c r="E105" s="53"/>
       <c r="F105" s="53"/>
-      <c r="G105" s="79"/>
-      <c r="H105" s="80"/>
+      <c r="G105" s="87"/>
+      <c r="H105" s="88"/>
       <c r="I105" s="53"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
@@ -3524,16 +3674,16 @@
       <c r="I107" s="14"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B108" s="85" t="s">
+      <c r="B108" s="64" t="s">
         <v>197</v>
       </c>
-      <c r="C108" s="85"/>
-      <c r="D108" s="85"/>
-      <c r="E108" s="85"/>
-      <c r="F108" s="85"/>
-      <c r="G108" s="85"/>
-      <c r="H108" s="85"/>
-      <c r="I108" s="85"/>
+      <c r="C108" s="64"/>
+      <c r="D108" s="64"/>
+      <c r="E108" s="64"/>
+      <c r="F108" s="64"/>
+      <c r="G108" s="64"/>
+      <c r="H108" s="64"/>
+      <c r="I108" s="64"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B109" s="13" t="s">
@@ -3545,8 +3695,8 @@
       <c r="D109" s="7"/>
       <c r="E109" s="7"/>
       <c r="F109" s="7"/>
-      <c r="G109" s="69"/>
-      <c r="H109" s="70"/>
+      <c r="G109" s="85"/>
+      <c r="H109" s="86"/>
       <c r="I109" s="14"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
@@ -3559,21 +3709,21 @@
       <c r="D110" s="7"/>
       <c r="E110" s="7"/>
       <c r="F110" s="7"/>
-      <c r="G110" s="69"/>
-      <c r="H110" s="70"/>
+      <c r="G110" s="85"/>
+      <c r="H110" s="86"/>
       <c r="I110" s="14"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B111" s="85" t="s">
+      <c r="B111" s="64" t="s">
         <v>202</v>
       </c>
-      <c r="C111" s="85"/>
-      <c r="D111" s="85"/>
-      <c r="E111" s="85"/>
-      <c r="F111" s="85"/>
-      <c r="G111" s="85"/>
-      <c r="H111" s="85"/>
-      <c r="I111" s="85"/>
+      <c r="C111" s="64"/>
+      <c r="D111" s="64"/>
+      <c r="E111" s="64"/>
+      <c r="F111" s="64"/>
+      <c r="G111" s="64"/>
+      <c r="H111" s="64"/>
+      <c r="I111" s="64"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B112" s="13" t="s">
@@ -3585,8 +3735,8 @@
       <c r="D112" s="54"/>
       <c r="E112" s="7"/>
       <c r="F112" s="7"/>
-      <c r="G112" s="71"/>
-      <c r="H112" s="72"/>
+      <c r="G112" s="89"/>
+      <c r="H112" s="90"/>
       <c r="I112" s="10"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -3599,8 +3749,8 @@
       <c r="D113" s="54"/>
       <c r="E113" s="7"/>
       <c r="F113" s="7"/>
-      <c r="G113" s="71"/>
-      <c r="H113" s="72"/>
+      <c r="G113" s="89"/>
+      <c r="H113" s="90"/>
       <c r="I113" s="10"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -3613,8 +3763,8 @@
       <c r="D114" s="55"/>
       <c r="E114" s="7"/>
       <c r="F114" s="7"/>
-      <c r="G114" s="71"/>
-      <c r="H114" s="72"/>
+      <c r="G114" s="89"/>
+      <c r="H114" s="90"/>
       <c r="I114" s="10"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -3627,21 +3777,21 @@
       <c r="D115" s="54"/>
       <c r="E115" s="7"/>
       <c r="F115" s="7"/>
-      <c r="G115" s="71"/>
-      <c r="H115" s="72"/>
+      <c r="G115" s="89"/>
+      <c r="H115" s="90"/>
       <c r="I115" s="10"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B116" s="85" t="s">
+      <c r="B116" s="64" t="s">
         <v>120</v>
       </c>
-      <c r="C116" s="85"/>
-      <c r="D116" s="85"/>
-      <c r="E116" s="85"/>
-      <c r="F116" s="85"/>
-      <c r="G116" s="85"/>
-      <c r="H116" s="85"/>
-      <c r="I116" s="85"/>
+      <c r="C116" s="64"/>
+      <c r="D116" s="64"/>
+      <c r="E116" s="64"/>
+      <c r="F116" s="64"/>
+      <c r="G116" s="64"/>
+      <c r="H116" s="64"/>
+      <c r="I116" s="64"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B117" s="13" t="s">
@@ -3653,8 +3803,8 @@
       <c r="D117" s="7"/>
       <c r="E117" s="7"/>
       <c r="F117" s="7"/>
-      <c r="G117" s="69"/>
-      <c r="H117" s="70"/>
+      <c r="G117" s="85"/>
+      <c r="H117" s="86"/>
       <c r="I117" s="14"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -3683,10 +3833,10 @@
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B120" s="83" t="s">
+      <c r="B120" s="62" t="s">
         <v>202</v>
       </c>
-      <c r="C120" s="84"/>
+      <c r="C120" s="63"/>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B121" s="13" t="s">
@@ -3721,10 +3871,10 @@
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B125" s="83" t="s">
+      <c r="B125" s="62" t="s">
         <v>227</v>
       </c>
-      <c r="C125" s="84"/>
+      <c r="C125" s="63"/>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B126" s="13" t="s">
@@ -3735,10 +3885,10 @@
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B127" s="83" t="s">
+      <c r="B127" s="62" t="s">
         <v>140</v>
       </c>
-      <c r="C127" s="84"/>
+      <c r="C127" s="63"/>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B128" s="13" t="s">
@@ -3845,10 +3995,10 @@
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B141" s="83" t="s">
+      <c r="B141" s="62" t="s">
         <v>173</v>
       </c>
-      <c r="C141" s="84"/>
+      <c r="C141" s="63"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B142" s="13" t="s">
@@ -3862,7 +4012,7 @@
       <c r="A143" t="s">
         <v>262</v>
       </c>
-      <c r="B143" s="93" t="s">
+      <c r="B143" s="72" t="s">
         <v>263</v>
       </c>
       <c r="C143" t="s">
@@ -3873,10 +4023,10 @@
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B144" s="91" t="s">
+      <c r="B144" s="70" t="s">
         <v>202</v>
       </c>
-      <c r="C144" s="92"/>
+      <c r="C144" s="71"/>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B145" s="13" t="s">
@@ -3911,10 +4061,10 @@
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B149" s="91" t="s">
+      <c r="B149" s="70" t="s">
         <v>267</v>
       </c>
-      <c r="C149" s="92"/>
+      <c r="C149" s="71"/>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B150" s="13" t="s">
@@ -3973,10 +4123,10 @@
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B157" s="91" t="s">
+      <c r="B157" s="70" t="s">
         <v>173</v>
       </c>
-      <c r="C157" s="92"/>
+      <c r="C157" s="71"/>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B158" s="13" t="s">
@@ -3990,16 +4140,16 @@
       <c r="A159" t="s">
         <v>284</v>
       </c>
-      <c r="B159" s="89" t="s">
+      <c r="B159" s="68" t="s">
         <v>285</v>
       </c>
-      <c r="C159" s="85"/>
+      <c r="C159" s="64"/>
     </row>
     <row r="160" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B160" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="C160" s="94" t="s">
+      <c r="C160" s="73" t="s">
         <v>287</v>
       </c>
     </row>
@@ -4007,7 +4157,7 @@
       <c r="B161" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="C161" s="95" t="s">
+      <c r="C161" s="74" t="s">
         <v>289</v>
       </c>
     </row>
@@ -4015,7 +4165,7 @@
       <c r="B162" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="C162" s="94" t="s">
+      <c r="C162" s="73" t="s">
         <v>291</v>
       </c>
     </row>
@@ -4023,7 +4173,7 @@
       <c r="B163" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="C163" s="95" t="s">
+      <c r="C163" s="74" t="s">
         <v>293</v>
       </c>
     </row>
@@ -4031,7 +4181,7 @@
       <c r="B164" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="C164" s="95" t="s">
+      <c r="C164" s="74" t="s">
         <v>295</v>
       </c>
     </row>
@@ -4039,7 +4189,7 @@
       <c r="B165" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="C165" s="95" t="s">
+      <c r="C165" s="74" t="s">
         <v>297</v>
       </c>
     </row>
@@ -4047,7 +4197,7 @@
       <c r="B166" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="C166" s="95" t="s">
+      <c r="C166" s="74" t="s">
         <v>299</v>
       </c>
     </row>
@@ -4055,15 +4205,15 @@
       <c r="B167" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="C167" s="96" t="s">
+      <c r="C167" s="75" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B168" s="86" t="s">
+      <c r="B168" s="65" t="s">
         <v>202</v>
       </c>
-      <c r="C168" s="87"/>
+      <c r="C168" s="66"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B169" s="13" t="s">
@@ -4077,7 +4227,7 @@
       <c r="B170" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="C170" s="97" t="s">
+      <c r="C170" s="76" t="s">
         <v>206</v>
       </c>
     </row>
@@ -4093,21 +4243,21 @@
       <c r="B172" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="C172" s="97" t="s">
+      <c r="C172" s="76" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B173" s="86" t="s">
+      <c r="B173" s="65" t="s">
         <v>173</v>
       </c>
-      <c r="C173" s="87"/>
+      <c r="C173" s="66"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B174" s="13" t="s">
         <v>306</v>
       </c>
-      <c r="C174" s="98" t="s">
+      <c r="C174" s="77" t="s">
         <v>212</v>
       </c>
     </row>
@@ -4137,16 +4287,16 @@
       </c>
     </row>
     <row r="177" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B177" s="89" t="s">
+      <c r="B177" s="68" t="s">
         <v>308</v>
       </c>
-      <c r="C177" s="85"/>
+      <c r="C177" s="64"/>
     </row>
     <row r="178" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B178" s="58" t="s">
         <v>311</v>
       </c>
-      <c r="C178" s="99" t="s">
+      <c r="C178" s="78" t="s">
         <v>231</v>
       </c>
     </row>
@@ -4154,7 +4304,7 @@
       <c r="B179" s="58" t="s">
         <v>312</v>
       </c>
-      <c r="C179" s="99" t="s">
+      <c r="C179" s="78" t="s">
         <v>241</v>
       </c>
     </row>
@@ -4162,7 +4312,7 @@
       <c r="B180" s="58" t="s">
         <v>314</v>
       </c>
-      <c r="C180" s="99" t="s">
+      <c r="C180" s="78" t="s">
         <v>245</v>
       </c>
     </row>
@@ -4170,7 +4320,7 @@
       <c r="B181" s="58" t="s">
         <v>316</v>
       </c>
-      <c r="C181" s="99" t="s">
+      <c r="C181" s="78" t="s">
         <v>313</v>
       </c>
     </row>
@@ -4178,7 +4328,7 @@
       <c r="B182" s="58" t="s">
         <v>317</v>
       </c>
-      <c r="C182" s="99" t="s">
+      <c r="C182" s="78" t="s">
         <v>315</v>
       </c>
     </row>
@@ -4186,7 +4336,7 @@
       <c r="B183" s="58" t="s">
         <v>318</v>
       </c>
-      <c r="C183" s="99" t="s">
+      <c r="C183" s="78" t="s">
         <v>247</v>
       </c>
     </row>
@@ -4194,7 +4344,7 @@
       <c r="B184" s="58" t="s">
         <v>319</v>
       </c>
-      <c r="C184" s="99" t="s">
+      <c r="C184" s="78" t="s">
         <v>249</v>
       </c>
     </row>
@@ -4202,7 +4352,7 @@
       <c r="B185" s="58" t="s">
         <v>321</v>
       </c>
-      <c r="C185" s="99" t="s">
+      <c r="C185" s="78" t="s">
         <v>251</v>
       </c>
     </row>
@@ -4210,21 +4360,21 @@
       <c r="B186" s="58" t="s">
         <v>323</v>
       </c>
-      <c r="C186" s="99" t="s">
+      <c r="C186" s="78" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="187" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B187" s="86" t="s">
+      <c r="B187" s="65" t="s">
         <v>202</v>
       </c>
-      <c r="C187" s="87"/>
+      <c r="C187" s="66"/>
     </row>
     <row r="188" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B188" s="58" t="s">
         <v>325</v>
       </c>
-      <c r="C188" s="99" t="s">
+      <c r="C188" s="78" t="s">
         <v>322</v>
       </c>
     </row>
@@ -4232,7 +4382,7 @@
       <c r="B189" s="58" t="s">
         <v>326</v>
       </c>
-      <c r="C189" s="99" t="s">
+      <c r="C189" s="78" t="s">
         <v>324</v>
       </c>
     </row>
@@ -4240,7 +4390,7 @@
       <c r="B190" s="58" t="s">
         <v>328</v>
       </c>
-      <c r="C190" s="99" t="s">
+      <c r="C190" s="78" t="s">
         <v>206</v>
       </c>
     </row>
@@ -4248,7 +4398,7 @@
       <c r="B191" s="58" t="s">
         <v>329</v>
       </c>
-      <c r="C191" s="99" t="s">
+      <c r="C191" s="78" t="s">
         <v>327</v>
       </c>
     </row>
@@ -4256,35 +4406,35 @@
       <c r="B192" s="58" t="s">
         <v>331</v>
       </c>
-      <c r="C192" s="99" t="s">
+      <c r="C192" s="78" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B193" s="86" t="s">
+      <c r="B193" s="65" t="s">
         <v>227</v>
       </c>
-      <c r="C193" s="87"/>
+      <c r="C193" s="66"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B194" s="58" t="s">
         <v>333</v>
       </c>
-      <c r="C194" s="99" t="s">
+      <c r="C194" s="78" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B195" s="86" t="s">
+      <c r="B195" s="65" t="s">
         <v>330</v>
       </c>
-      <c r="C195" s="87"/>
+      <c r="C195" s="66"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B196" s="58" t="s">
         <v>335</v>
       </c>
-      <c r="C196" s="99" t="s">
+      <c r="C196" s="78" t="s">
         <v>332</v>
       </c>
     </row>
@@ -4300,7 +4450,7 @@
       <c r="B198" s="58" t="s">
         <v>339</v>
       </c>
-      <c r="C198" s="99" t="s">
+      <c r="C198" s="78" t="s">
         <v>336</v>
       </c>
     </row>
@@ -4308,7 +4458,7 @@
       <c r="B199" s="58" t="s">
         <v>341</v>
       </c>
-      <c r="C199" s="99" t="s">
+      <c r="C199" s="78" t="s">
         <v>338</v>
       </c>
     </row>
@@ -4316,7 +4466,7 @@
       <c r="B200" s="58" t="s">
         <v>343</v>
       </c>
-      <c r="C200" s="99" t="s">
+      <c r="C200" s="78" t="s">
         <v>340</v>
       </c>
     </row>
@@ -4324,7 +4474,7 @@
       <c r="B201" s="58" t="s">
         <v>345</v>
       </c>
-      <c r="C201" s="99" t="s">
+      <c r="C201" s="78" t="s">
         <v>342</v>
       </c>
     </row>
@@ -4332,7 +4482,7 @@
       <c r="B202" s="58" t="s">
         <v>347</v>
       </c>
-      <c r="C202" s="99" t="s">
+      <c r="C202" s="78" t="s">
         <v>344</v>
       </c>
     </row>
@@ -4340,21 +4490,21 @@
       <c r="B203" s="58" t="s">
         <v>350</v>
       </c>
-      <c r="C203" s="99" t="s">
+      <c r="C203" s="78" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B204" s="86" t="s">
+      <c r="B204" s="65" t="s">
         <v>173</v>
       </c>
-      <c r="C204" s="87"/>
+      <c r="C204" s="66"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B205" s="58" t="s">
         <v>351</v>
       </c>
-      <c r="C205" s="98" t="s">
+      <c r="C205" s="77" t="s">
         <v>212</v>
       </c>
     </row>
@@ -4384,16 +4534,16 @@
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B208" s="100" t="s">
+      <c r="B208" s="79" t="s">
         <v>202</v>
       </c>
-      <c r="C208" s="101"/>
+      <c r="C208" s="80"/>
     </row>
     <row r="209" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B209" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="C209" s="99" t="s">
+      <c r="C209" s="78" t="s">
         <v>354</v>
       </c>
     </row>
@@ -4401,7 +4551,7 @@
       <c r="B210" s="13" t="s">
         <v>358</v>
       </c>
-      <c r="C210" s="99" t="s">
+      <c r="C210" s="78" t="s">
         <v>324</v>
       </c>
     </row>
@@ -4409,7 +4559,7 @@
       <c r="B211" s="13" t="s">
         <v>360</v>
       </c>
-      <c r="C211" s="99" t="s">
+      <c r="C211" s="78" t="s">
         <v>357</v>
       </c>
     </row>
@@ -4417,7 +4567,7 @@
       <c r="B212" s="13" t="s">
         <v>362</v>
       </c>
-      <c r="C212" s="99" t="s">
+      <c r="C212" s="78" t="s">
         <v>359</v>
       </c>
     </row>
@@ -4425,21 +4575,21 @@
       <c r="B213" s="13" t="s">
         <v>364</v>
       </c>
-      <c r="C213" s="99" t="s">
+      <c r="C213" s="78" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="214" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B214" s="102" t="s">
+      <c r="B214" s="81" t="s">
         <v>361</v>
       </c>
-      <c r="C214" s="103"/>
+      <c r="C214" s="82"/>
     </row>
     <row r="215" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B215" s="13" t="s">
         <v>366</v>
       </c>
-      <c r="C215" s="99" t="s">
+      <c r="C215" s="78" t="s">
         <v>363</v>
       </c>
     </row>
@@ -4447,7 +4597,7 @@
       <c r="B216" s="13" t="s">
         <v>368</v>
       </c>
-      <c r="C216" s="99" t="s">
+      <c r="C216" s="78" t="s">
         <v>365</v>
       </c>
     </row>
@@ -4455,21 +4605,21 @@
       <c r="B217" s="13" t="s">
         <v>369</v>
       </c>
-      <c r="C217" s="99" t="s">
+      <c r="C217" s="78" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="218" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B218" s="89" t="s">
+      <c r="B218" s="68" t="s">
         <v>330</v>
       </c>
-      <c r="C218" s="85"/>
+      <c r="C218" s="64"/>
     </row>
     <row r="219" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B219" s="13" t="s">
         <v>370</v>
       </c>
-      <c r="C219" s="99" t="s">
+      <c r="C219" s="78" t="s">
         <v>354</v>
       </c>
     </row>
@@ -4485,7 +4635,7 @@
       <c r="B221" s="13" t="s">
         <v>373</v>
       </c>
-      <c r="C221" s="99" t="s">
+      <c r="C221" s="78" t="s">
         <v>371</v>
       </c>
     </row>
@@ -4493,7 +4643,7 @@
       <c r="B222" s="13" t="s">
         <v>374</v>
       </c>
-      <c r="C222" s="99" t="s">
+      <c r="C222" s="78" t="s">
         <v>338</v>
       </c>
     </row>
@@ -4501,7 +4651,7 @@
       <c r="B223" s="13" t="s">
         <v>376</v>
       </c>
-      <c r="C223" s="99" t="s">
+      <c r="C223" s="78" t="s">
         <v>340</v>
       </c>
     </row>
@@ -4509,7 +4659,7 @@
       <c r="B224" s="13" t="s">
         <v>377</v>
       </c>
-      <c r="C224" s="99" t="s">
+      <c r="C224" s="78" t="s">
         <v>375</v>
       </c>
     </row>
@@ -4517,7 +4667,7 @@
       <c r="B225" s="13" t="s">
         <v>379</v>
       </c>
-      <c r="C225" s="99" t="s">
+      <c r="C225" s="78" t="s">
         <v>344</v>
       </c>
     </row>
@@ -4525,21 +4675,21 @@
       <c r="B226" s="13" t="s">
         <v>381</v>
       </c>
-      <c r="C226" s="99" t="s">
+      <c r="C226" s="78" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="227" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B227" s="89" t="s">
+      <c r="B227" s="68" t="s">
         <v>378</v>
       </c>
-      <c r="C227" s="85"/>
+      <c r="C227" s="64"/>
     </row>
     <row r="228" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B228" s="13" t="s">
         <v>383</v>
       </c>
-      <c r="C228" s="99" t="s">
+      <c r="C228" s="78" t="s">
         <v>380</v>
       </c>
     </row>
@@ -4547,7 +4697,7 @@
       <c r="B229" s="13" t="s">
         <v>385</v>
       </c>
-      <c r="C229" s="99" t="s">
+      <c r="C229" s="78" t="s">
         <v>382</v>
       </c>
     </row>
@@ -4555,7 +4705,7 @@
       <c r="B230" s="13" t="s">
         <v>387</v>
       </c>
-      <c r="C230" s="104" t="s">
+      <c r="C230" s="83" t="s">
         <v>384</v>
       </c>
     </row>
@@ -4563,7 +4713,7 @@
       <c r="B231" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="C231" s="105" t="s">
+      <c r="C231" s="84" t="s">
         <v>386</v>
       </c>
     </row>
@@ -4600,16 +4750,16 @@
       </c>
     </row>
     <row r="236" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B236" s="89" t="s">
+      <c r="B236" s="68" t="s">
         <v>395</v>
       </c>
-      <c r="C236" s="85"/>
+      <c r="C236" s="64"/>
     </row>
     <row r="237" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B237" s="13" t="s">
         <v>400</v>
       </c>
-      <c r="C237" s="99" t="s">
+      <c r="C237" s="78" t="s">
         <v>397</v>
       </c>
     </row>
@@ -4617,7 +4767,7 @@
       <c r="B238" s="13" t="s">
         <v>402</v>
       </c>
-      <c r="C238" s="99" t="s">
+      <c r="C238" s="78" t="s">
         <v>399</v>
       </c>
     </row>
@@ -4625,7 +4775,7 @@
       <c r="B239" s="13" t="s">
         <v>404</v>
       </c>
-      <c r="C239" s="99" t="s">
+      <c r="C239" s="78" t="s">
         <v>401</v>
       </c>
     </row>
@@ -4633,7 +4783,7 @@
       <c r="B240" s="13" t="s">
         <v>406</v>
       </c>
-      <c r="C240" s="99" t="s">
+      <c r="C240" s="78" t="s">
         <v>403</v>
       </c>
     </row>
@@ -4641,7 +4791,7 @@
       <c r="B241" s="13" t="s">
         <v>408</v>
       </c>
-      <c r="C241" s="99" t="s">
+      <c r="C241" s="78" t="s">
         <v>405</v>
       </c>
     </row>
@@ -4649,7 +4799,7 @@
       <c r="B242" s="13" t="s">
         <v>410</v>
       </c>
-      <c r="C242" s="99" t="s">
+      <c r="C242" s="78" t="s">
         <v>407</v>
       </c>
     </row>
@@ -4657,7 +4807,7 @@
       <c r="B243" s="13" t="s">
         <v>412</v>
       </c>
-      <c r="C243" s="99" t="s">
+      <c r="C243" s="78" t="s">
         <v>409</v>
       </c>
     </row>
@@ -4665,7 +4815,7 @@
       <c r="B244" s="13" t="s">
         <v>414</v>
       </c>
-      <c r="C244" s="99" t="s">
+      <c r="C244" s="78" t="s">
         <v>411</v>
       </c>
     </row>
@@ -4673,7 +4823,7 @@
       <c r="B245" s="13" t="s">
         <v>416</v>
       </c>
-      <c r="C245" s="99" t="s">
+      <c r="C245" s="78" t="s">
         <v>413</v>
       </c>
     </row>
@@ -4686,16 +4836,16 @@
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B247" s="89" t="s">
+      <c r="B247" s="68" t="s">
         <v>173</v>
       </c>
-      <c r="C247" s="85"/>
+      <c r="C247" s="64"/>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B248" s="13" t="s">
         <v>420</v>
       </c>
-      <c r="C248" s="28" t="s">
+      <c r="C248" s="49" t="s">
         <v>212</v>
       </c>
       <c r="D248" t="s">
@@ -4706,10 +4856,10 @@
       <c r="A249" t="s">
         <v>421</v>
       </c>
-      <c r="B249" s="93" t="s">
+      <c r="B249" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="C249" t="s">
+      <c r="C249" s="49" t="s">
         <v>215</v>
       </c>
       <c r="D249" t="s">
@@ -4717,10 +4867,10 @@
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B250" s="93" t="s">
+      <c r="B250" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="C250" t="s">
+      <c r="C250" s="49" t="s">
         <v>423</v>
       </c>
       <c r="D250" t="s">
@@ -4728,10 +4878,10 @@
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B251" s="93" t="s">
+      <c r="B251" s="13" t="s">
         <v>427</v>
       </c>
-      <c r="C251" t="s">
+      <c r="C251" s="49" t="s">
         <v>424</v>
       </c>
       <c r="D251" t="s">
@@ -4739,10 +4889,10 @@
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B252" s="93" t="s">
+      <c r="B252" s="13" t="s">
         <v>428</v>
       </c>
-      <c r="C252" t="s">
+      <c r="C252" s="49" t="s">
         <v>425</v>
       </c>
       <c r="D252" t="s">
@@ -4750,10 +4900,10 @@
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B253" s="93" t="s">
+      <c r="B253" s="13" t="s">
         <v>429</v>
       </c>
-      <c r="C253" t="s">
+      <c r="C253" s="49" t="s">
         <v>430</v>
       </c>
     </row>
@@ -4761,10 +4911,10 @@
       <c r="A254" t="s">
         <v>431</v>
       </c>
-      <c r="B254" s="93" t="s">
+      <c r="B254" s="13" t="s">
         <v>432</v>
       </c>
-      <c r="C254" t="s">
+      <c r="C254" s="49" t="s">
         <v>215</v>
       </c>
       <c r="D254" t="s">
@@ -4772,10 +4922,10 @@
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B255" s="93" t="s">
+      <c r="B255" s="13" t="s">
         <v>433</v>
       </c>
-      <c r="C255" t="s">
+      <c r="C255" s="49" t="s">
         <v>423</v>
       </c>
       <c r="D255" t="s">
@@ -4783,10 +4933,10 @@
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B256" s="93" t="s">
+      <c r="B256" s="13" t="s">
         <v>434</v>
       </c>
-      <c r="C256" t="s">
+      <c r="C256" s="49" t="s">
         <v>424</v>
       </c>
       <c r="D256" t="s">
@@ -4794,10 +4944,10 @@
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B257" s="93" t="s">
+      <c r="B257" s="13" t="s">
         <v>435</v>
       </c>
-      <c r="C257" t="s">
+      <c r="C257" s="49" t="s">
         <v>425</v>
       </c>
       <c r="D257" t="s">
@@ -4805,10 +4955,10 @@
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B258" s="93" t="s">
+      <c r="B258" s="13" t="s">
         <v>436</v>
       </c>
-      <c r="C258" t="s">
+      <c r="C258" s="49" t="s">
         <v>437</v>
       </c>
     </row>
@@ -4816,10 +4966,10 @@
       <c r="A259" t="s">
         <v>438</v>
       </c>
-      <c r="B259" s="93" t="s">
+      <c r="B259" s="13" t="s">
         <v>439</v>
       </c>
-      <c r="C259" t="s">
+      <c r="C259" s="49" t="s">
         <v>215</v>
       </c>
       <c r="D259" t="s">
@@ -4827,10 +4977,10 @@
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B260" s="93" t="s">
+      <c r="B260" s="13" t="s">
         <v>440</v>
       </c>
-      <c r="C260" t="s">
+      <c r="C260" s="49" t="s">
         <v>423</v>
       </c>
       <c r="D260" t="s">
@@ -4838,10 +4988,10 @@
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B261" s="93" t="s">
+      <c r="B261" s="13" t="s">
         <v>441</v>
       </c>
-      <c r="C261" t="s">
+      <c r="C261" s="49" t="s">
         <v>424</v>
       </c>
       <c r="D261" t="s">
@@ -4849,10 +4999,10 @@
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B262" s="93" t="s">
+      <c r="B262" s="13" t="s">
         <v>442</v>
       </c>
-      <c r="C262" t="s">
+      <c r="C262" s="49" t="s">
         <v>425</v>
       </c>
       <c r="D262" t="s">
@@ -4860,10 +5010,10 @@
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B263" s="93" t="s">
+      <c r="B263" s="13" t="s">
         <v>443</v>
       </c>
-      <c r="C263" t="s">
+      <c r="C263" s="49" t="s">
         <v>444</v>
       </c>
     </row>
@@ -4871,63 +5021,248 @@
       <c r="A264" t="s">
         <v>445</v>
       </c>
-      <c r="B264" s="93" t="s">
+      <c r="B264" s="13" t="s">
         <v>446</v>
       </c>
-      <c r="C264" t="s">
+      <c r="C264" s="49" t="s">
         <v>447</v>
       </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>448</v>
+      </c>
+      <c r="B265" s="68" t="s">
+        <v>449</v>
+      </c>
+      <c r="C265" s="68"/>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B266" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="C266" s="49" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B267" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="C267" s="49" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B268" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="C268" s="49" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B269" s="68" t="s">
+        <v>456</v>
+      </c>
+      <c r="C269" s="68"/>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B270" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="C270" s="49" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B271" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="C271" s="49" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B272" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="C272" s="49" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B273" s="68" t="s">
+        <v>460</v>
+      </c>
+      <c r="C273" s="68"/>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B274" s="13" t="s">
+        <v>461</v>
+      </c>
+      <c r="C274" s="49" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B275" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="C275" s="49" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B276" s="13" t="s">
+        <v>463</v>
+      </c>
+      <c r="C276" s="49" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B277" s="68" t="s">
+        <v>464</v>
+      </c>
+      <c r="C277" s="68"/>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B278" s="13" t="s">
+        <v>465</v>
+      </c>
+      <c r="C278" s="49" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>470</v>
+      </c>
+      <c r="B279" s="13" t="s">
+        <v>471</v>
+      </c>
+      <c r="C279" s="49" t="s">
+        <v>472</v>
+      </c>
+      <c r="D279" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B280" s="13" t="s">
+        <v>473</v>
+      </c>
+      <c r="C280" s="49" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B281" s="13" t="s">
+        <v>475</v>
+      </c>
+      <c r="C281" s="49" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B282" s="13" t="s">
+        <v>477</v>
+      </c>
+      <c r="C282" s="49" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>479</v>
+      </c>
+      <c r="B283" s="13" t="s">
+        <v>480</v>
+      </c>
+      <c r="C283" s="49" t="s">
+        <v>481</v>
+      </c>
+      <c r="D283" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B284" s="13" t="s">
+        <v>482</v>
+      </c>
+      <c r="C284" s="49" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B285" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="C285" s="49" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B286" s="13" t="s">
+        <v>486</v>
+      </c>
+      <c r="C286" s="49" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B287" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="C287" s="49" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B288" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="C288" s="49" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="289" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B289" s="13" t="s">
+        <v>492</v>
+      </c>
+      <c r="C289" s="49" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="290" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B290" s="13" t="s">
+        <v>494</v>
+      </c>
+      <c r="C290" s="49" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="291" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B291" s="13" t="s">
+        <v>496</v>
+      </c>
+      <c r="C291" s="49" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="294" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C294" s="13"/>
+      <c r="D294" s="49"/>
+    </row>
+    <row r="295" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C295" s="13"/>
+      <c r="D295" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="G117:H117"/>
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="G105:H105"/>
-    <mergeCell ref="G109:H109"/>
-    <mergeCell ref="G110:H110"/>
-    <mergeCell ref="G112:H112"/>
-    <mergeCell ref="G113:H113"/>
-    <mergeCell ref="G114:H114"/>
-    <mergeCell ref="G115:H115"/>
-    <mergeCell ref="G102:H102"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
     <mergeCell ref="G59:H59"/>
     <mergeCell ref="G60:H60"/>
     <mergeCell ref="G61:H61"/>
@@ -4944,8 +5279,54 @@
     <mergeCell ref="G42:H42"/>
     <mergeCell ref="G43:H43"/>
     <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="G117:H117"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="G105:H105"/>
+    <mergeCell ref="G109:H109"/>
+    <mergeCell ref="G110:H110"/>
+    <mergeCell ref="G112:H112"/>
+    <mergeCell ref="G113:H113"/>
+    <mergeCell ref="G114:H114"/>
+    <mergeCell ref="G115:H115"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
